--- a/english_note.xlsx
+++ b/english_note.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="ESL" sheetId="1" r:id="rId1"/>
+    <sheet name="The Sun Also Rise" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,20 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>Sentence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>interprete</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>words&amp;terms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>respond</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -66,10 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>act out</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>at one point</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,7 +74,336 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>close the door with a lot of force, an indication that you are angry</t>
+    <t>act out + in some other way</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sentence&amp;words&amp;terms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>misbehave, behaving badly, like child often do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>at a certain time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hitting your feet against the floor loudly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leave a room by loudly hitting your feet against the floor, indicating that you are angry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>close the door very loudly, with a lot of force, an indication that you are angry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>silent treatment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>two people don't talk to each other, because they are angry with each other</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>talk over</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>take turns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to speak while another person is speaking, especially if you want to say something and don't want to listen to the other person</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>everyone gets a chance or opportunity to do something in some kind of orders</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>posture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">refer to </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. to behave or act in a certain way in order to impress other people, to make other people think a certain way about you, or even afraid of you</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参考</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>涉及</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查阅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提到</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">devolve </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change into something worse==deteriorate or worsen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>counteract</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inferiority</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snooty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Negative Emotion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gym</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promptly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Motion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distaste</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dislike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>step on his face</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>by accident</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not only</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bitter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Positive Emotion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>harden(v)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">make up mind to </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>take in hand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deprive sb of sth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>work as &lt;occupation&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>over time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>session</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sick of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tired of, feel boring about sth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">all the time </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>always</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a peirod of time that is spent doing a particular activity, such as a photo/recording/training .etc session</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>devote sth to sth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fell like</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>think</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rehearse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a performce where someone paid to play music in front of people</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>establishment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>even can be used to express building</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rely on or depend on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make a living</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to earn money to live</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in addition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>another</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">pack it in </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>give up, stop doing sth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to practice, usually music or actor for a performance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spend sth to sth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change with time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -94,7 +411,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +423,13 @@
       <sz val="9"/>
       <name val="Tahoma"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -129,8 +453,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -425,112 +750,359 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:D13"/>
+  <dimension ref="A3:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="35.375" customWidth="1"/>
-    <col min="3" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="57.75" customWidth="1"/>
+    <col min="2" max="2" width="26.5" customWidth="1"/>
+    <col min="3" max="3" width="123.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:3">
       <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>1274</v>
       </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
       <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="B5" t="s">
+      <c r="C6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="C6" t="s">
+    <row r="7" spans="1:3">
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="C7" t="s">
+    <row r="8" spans="1:3">
+      <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="C8" t="s">
+    <row r="9" spans="1:3">
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="C9" t="s">
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="C10" t="s">
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
       <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>1275</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="B27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="B28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="B29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="B30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="B31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="B32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A2:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="11" width="16.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/english_note.xlsx
+++ b/english_note.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>interprete</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -404,6 +404,34 @@
   </si>
   <si>
     <t>change with time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>work in the music business</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">where to </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abbre. Where do you go to ?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on-site</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>daycare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pop over</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>go or visit someone quickly, unexpectly, without an appointment.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -750,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:C34"/>
+  <dimension ref="A3:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -908,106 +936,140 @@
     </row>
     <row r="22" spans="1:3">
       <c r="B22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="B23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="B24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="B25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="B26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="B27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="B28" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="B29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="B30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="B31" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="B32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="B33" t="s">
         <v>71</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="2:3">
-      <c r="B33" t="s">
+    <row r="34" spans="1:3">
+      <c r="B34" t="s">
         <v>73</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
-      <c r="B34" t="s">
+    <row r="35" spans="1:3">
+      <c r="B35" t="s">
         <v>75</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="B36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>1276</v>
+      </c>
+      <c r="B38" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="B39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="B40" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/english_note.xlsx
+++ b/english_note.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>interprete</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -431,7 +431,169 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>go or visit someone quickly, unexpectly, without an appointment.</t>
+    <t>go or visit someone quickly, unexpectedly, without an appointment.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pop in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>when someone stops to talk to you</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停下来，和你交谈，先停，后谈，注意顺序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>someone stops to talk to you with whom you didn't have a date or an appointment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He poped in to see me</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sth that is in the same place as sth else</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a place to take care of young children</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">in addition to </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a special benefit that you get, in addition to being paid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drop off/pick up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>送</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>接</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maternity/paternity leave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>母</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>父，产假</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陪产假</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a period of change from one situation to another</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm also less distracted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">check on </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>peace of mind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feel calm, relax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to quickly see how someone is doing, to take a short amount of time to make sure someone is okay.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -778,15 +940,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:C40"/>
+  <dimension ref="A3:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="26.5" customWidth="1"/>
+    <col min="2" max="2" width="31.125" customWidth="1"/>
     <col min="3" max="3" width="123.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1058,11 +1220,17 @@
       <c r="B38" t="s">
         <v>83</v>
       </c>
+      <c r="C38" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="39" spans="1:3">
       <c r="B39" t="s">
         <v>84</v>
       </c>
+      <c r="C39" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="40" spans="1:3">
       <c r="B40" t="s">
@@ -1070,6 +1238,90 @@
       </c>
       <c r="C40" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="B41" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="B42" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="B43" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="B44" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="B45" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="B46" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="B47" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="B48" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="B49" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="B50" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="B51" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>1277</v>
       </c>
     </row>
   </sheetData>

--- a/english_note.xlsx
+++ b/english_note.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
   <si>
     <t>interprete</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -594,6 +594,255 @@
   </si>
   <si>
     <t>to quickly see how someone is doing, to take a short amount of time to make sure someone is okay.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it really annoys me</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>squeeze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gross</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>give sth up for</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>travel in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…are having this conversation on a subway train</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not to share with other people</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all of the places in the train are taken…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to try to put more into a space than there is room for</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>space, or unused, available, empty space.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invade someone's space</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be too close to another person</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a tall, vertical, usually, piece of metal that goes from the floor to the ceiling or top of the train that you can hold onto in case you are standing.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accidentally, not on purpose to touch something or someone else</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>take the subway</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inconsiderate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not giving enough thought to other people's feelings or needs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selective school</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prep school</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\=preparatory school, a school that is more difficult, that prepares you better to go to college</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>give a leg up in life</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>have an advantage over other people, to have something that allows you to be more successful in life</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fancy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>something that is expensive or something that is for people with a lot of money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>we should give our daughter every advantage we can</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a school that lots of people want to get into, and it is difficult to get 'admitted to' or be allowed to attend that school</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parochial school</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a school that is run by or operated by a church</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>secular school</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a school that is not run by a church</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day school/boarding school</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>走读</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>寄宿学校</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>semester</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">period of school year is divided into </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>that's final</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exclusive school</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>available only to a small number of people, and very desirable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>budge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to change your opinion or your position about something, usually used in negative sentences</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>so forth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admission criteria/criterion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the requirements that a student must meet or must have in order to get into or be admitted to a school</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aptitude test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a test that is supposed to test or give an indication of your ability to do something</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">be supposed to </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>achievement test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a test that looks at how much you know based on what you studied or what you have read</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>put someone through</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make someone do something difficult or something that might require effort or even pain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tuition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price of going to school</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -940,16 +1189,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:C53"/>
+  <dimension ref="A3:C88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="31.125" customWidth="1"/>
-    <col min="3" max="3" width="123.125" customWidth="1"/>
+    <col min="1" max="1" width="5.375" customWidth="1"/>
+    <col min="2" max="2" width="45.125" customWidth="1"/>
+    <col min="3" max="3" width="118.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3">
@@ -1322,6 +1572,243 @@
     <row r="53" spans="1:3">
       <c r="A53">
         <v>1277</v>
+      </c>
+      <c r="B53" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="B54" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="B55" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="B56" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="B57" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="B58" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="B59" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="B60" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="B61" t="s">
+        <v>118</v>
+      </c>
+      <c r="C61" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="B62" t="s">
+        <v>120</v>
+      </c>
+      <c r="C62" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="B63" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="B64" t="s">
+        <v>124</v>
+      </c>
+      <c r="C64" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="B65" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="B66" t="s">
+        <v>127</v>
+      </c>
+      <c r="C66" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>1278</v>
+      </c>
+      <c r="B68" t="s">
+        <v>129</v>
+      </c>
+      <c r="C68" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="B69" t="s">
+        <v>130</v>
+      </c>
+      <c r="C69" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="B70" t="s">
+        <v>132</v>
+      </c>
+      <c r="C70" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="B71" t="s">
+        <v>134</v>
+      </c>
+      <c r="C71" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="B72" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="B73" t="s">
+        <v>138</v>
+      </c>
+      <c r="C73" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="B74" t="s">
+        <v>140</v>
+      </c>
+      <c r="C74" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="B75" t="s">
+        <v>142</v>
+      </c>
+      <c r="C75" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="B76" t="s">
+        <v>144</v>
+      </c>
+      <c r="C76" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="B77" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="B78" t="s">
+        <v>147</v>
+      </c>
+      <c r="C78" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="B79" t="s">
+        <v>149</v>
+      </c>
+      <c r="C79" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="B80" t="s">
+        <v>152</v>
+      </c>
+      <c r="C80" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="B81" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="B82" t="s">
+        <v>154</v>
+      </c>
+      <c r="C82" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="B83" t="s">
+        <v>157</v>
+      </c>
+      <c r="C83" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="B84" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="B85" t="s">
+        <v>159</v>
+      </c>
+      <c r="C85" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="B86" t="s">
+        <v>161</v>
+      </c>
+      <c r="C86" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>1279</v>
       </c>
     </row>
   </sheetData>

--- a/english_note.xlsx
+++ b/english_note.xlsx
@@ -16,11 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
-  <si>
-    <t>interprete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
   <si>
     <t>respond</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,10 +71,6 @@
   </si>
   <si>
     <t>act out + in some other way</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sentence&amp;words&amp;terms</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -845,12 +837,148 @@
     <t>price of going to school</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>dietary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>raise money for the school</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diabetic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bake sale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dough</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a mixture of flour, water, etc. that is made into bread and pastry.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dessert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cut up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frosting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a sweet, colored usually, layer of some sort of butter cream or other sweet spread that goes on top of the cake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baked goods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shellfish/shrimp/crab/lobster--&gt;allergy/allergic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ethic/moral</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vegan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a person that does not eat or use any animal products.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lactose intolerant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>substitute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sugar/dairy substitue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>someone has a disease called 'diabetes', refers to blood sugar and insulin in their body unbalanced</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regulate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to control sth by means of rules</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">a slew of </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a large number of sth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a condition in which your body reacts negatively to something that it is near or something that you eat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wheat/barley/rye-&gt;grains,gluten</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usually made from wheat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to break or crush sth into very small pieces between two hard surfaces or using a special machine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boot/trunk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rummage sale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sentence&amp;words&amp;terms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interprete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -870,6 +998,13 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -892,9 +1027,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1189,10 +1325,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:C88"/>
+  <dimension ref="A3:C111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1203,11 +1339,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:3">
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
+      <c r="B3" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1215,127 +1351,127 @@
         <v>1274</v>
       </c>
       <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
         <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
         <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
         <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
         <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
         <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="B14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
         <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
         <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
         <v>27</v>
-      </c>
-      <c r="C17" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
         <v>28</v>
-      </c>
-      <c r="C18" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="B19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1343,124 +1479,124 @@
         <v>1275</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="B22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="B23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="B24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="B25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="B26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="B27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="B28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="B29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="B30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="B31" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="B32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="B33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="B34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="B35" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C35" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="B36" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C36" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1468,105 +1604,105 @@
         <v>1276</v>
       </c>
       <c r="B38" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C38" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="B39" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C39" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="B40" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C40" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="B41" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="B42" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="B43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="B44" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" t="s">
         <v>94</v>
-      </c>
-      <c r="C44" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="B45" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="B46" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C46" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="B47" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C47" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="B48" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="B49" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="B50" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C50" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="B51" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C51" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1574,93 +1710,93 @@
         <v>1277</v>
       </c>
       <c r="B53" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="B54" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C54" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="B55" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C55" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="B56" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="B57" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="B58" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="B59" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="B60" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="B61" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C61" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="B62" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C62" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="B63" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="B64" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C64" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="B65" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="B66" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C66" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1668,147 +1804,290 @@
         <v>1278</v>
       </c>
       <c r="B68" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C68" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="B69" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C69" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="B70" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C70" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="B71" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C71" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="B72" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="B73" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C73" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="B74" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C74" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="B75" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C75" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="B76" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C76" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="B77" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="B78" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C78" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="B79" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C79" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="B80" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C80" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="B81" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="B82" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C82" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="B83" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C83" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="B84" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="B85" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C85" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="B86" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C86" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
         <v>1279</v>
+      </c>
+      <c r="B88" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="B89" t="s">
+        <v>163</v>
+      </c>
+      <c r="C89" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="B90" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="B91" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="B92" t="s">
+        <v>165</v>
+      </c>
+      <c r="C92" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="B93" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="B94" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="B95" t="s">
+        <v>169</v>
+      </c>
+      <c r="C95" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="B96" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="B97" t="s">
+        <v>172</v>
+      </c>
+      <c r="C97" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="B98" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="B99" t="s">
+        <v>174</v>
+      </c>
+      <c r="C99" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="B100" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="B101" t="s">
+        <v>177</v>
+      </c>
+      <c r="C101" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="B102" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="B103" t="s">
+        <v>181</v>
+      </c>
+      <c r="C103" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="B104" t="s">
+        <v>183</v>
+      </c>
+      <c r="C104" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="B105" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="B106" t="s">
+        <v>187</v>
+      </c>
+      <c r="C106" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="B107" t="s">
+        <v>189</v>
+      </c>
+      <c r="C107" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="B108" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="B109" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111">
+        <v>1280</v>
       </c>
     </row>
   </sheetData>
@@ -1833,74 +2112,74 @@
   <sheetData>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/english_note.xlsx
+++ b/english_note.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="224">
   <si>
     <t>respond</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -971,6 +971,122 @@
   </si>
   <si>
     <t>Interprete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>major problem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remaster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>caption</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>big/import problem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>awfull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fluctuate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to vary--to increase and then decrease,but not in a constant or steady way, to go up and down unpredictably.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cut out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>simply to stop, but here it means for the sound to stop temporarily and then to begin again</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dead air</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>when there is suddenly no sound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑胶唱片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vinyl album</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">drown out </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for the noise or the sound to be louder than something else so that you can't hear what you want to hear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>you get the idea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>you understand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>garble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if someone sounds garbled, he is difficult to understand. It's similar to distorted.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>muffle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>when the sound is not loud enough</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to be able to understand what the other person is saying.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>high-pitched/tinny</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to use technology to improve the quality of sound that was recorded before, or often many years ago.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>worse comes to worst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mean or decribe a bad situation that gets even worse, that becomes as bad as possible</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1325,10 +1441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:C111"/>
+  <dimension ref="A3:C128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B128" sqref="B128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2088,6 +2204,128 @@
     <row r="111" spans="1:3">
       <c r="A111">
         <v>1280</v>
+      </c>
+      <c r="B111" t="s">
+        <v>195</v>
+      </c>
+      <c r="C111" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="B112" t="s">
+        <v>196</v>
+      </c>
+      <c r="C112" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="B113" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="B114" t="s">
+        <v>199</v>
+      </c>
+      <c r="C114" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="B115" t="s">
+        <v>201</v>
+      </c>
+      <c r="C115" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="B116" t="s">
+        <v>203</v>
+      </c>
+      <c r="C116" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="B117" t="s">
+        <v>205</v>
+      </c>
+      <c r="C117" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="B118" t="s">
+        <v>208</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="B119" t="s">
+        <v>209</v>
+      </c>
+      <c r="C119" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="B120" t="s">
+        <v>211</v>
+      </c>
+      <c r="C120" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="B121" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="B122" t="s">
+        <v>214</v>
+      </c>
+      <c r="C122" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="B123" t="s">
+        <v>216</v>
+      </c>
+      <c r="C123" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="B124" t="s">
+        <v>218</v>
+      </c>
+      <c r="C124" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="B125" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="B126" t="s">
+        <v>222</v>
+      </c>
+      <c r="C126" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128">
+        <v>1281</v>
       </c>
     </row>
   </sheetData>

--- a/english_note.xlsx
+++ b/english_note.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="306">
   <si>
     <t>respond</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1089,12 +1089,340 @@
     <t>mean or decribe a bad situation that gets even worse, that becomes as bad as possible</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>when you have the words what you are watching on the screen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be my guest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>burn off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring rider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merry-go-round</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jungle gym</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seesaw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>playground</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a outdoor area where children can play, usually on large pieces of equipment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">bench </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a long flat seat---in parks, in bus stations, in other public areas.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>used when someone is asking something from you or requesting something from you.'I don’t mind'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It often looks like an animal, or perhaps a car, and moves around and goes up and down when a child sits on it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spiral--&gt;coil--&gt;circle--&gt;spring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>you can slide down or go down from the top to the bottom.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转木马</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立体方格铁架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猴架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monkey bars</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跷跷板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹簧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teeter-totter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秋千</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trapeze ring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吊环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>My parents are both in the social sciences.--&gt; in the xx science</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's amazing that everybody in your family works in the sciences.--&gt; in the sciences.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initially</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sciences</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fields of study</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sociology/psychology/anthropology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社会学/心理学/人类学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>astronomy/astronomer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天文学/天文学家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>at first/at the beginning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>geology/geologist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地质学/地质学家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This was back in the late 1980s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这要回溯到上世纪80年代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biologist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生物学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>molecule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the smallest unit, consisting of a group of atoms, into which a substance can be divided without a change in its chemical nature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chemical nature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>have every confidence of/that sth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>you have no doubts--that you are sure sth will happen in the future.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">grow out of it </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to become older and wiser, or more mature, so that you're not interested in something/area that you liked in the young age</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be mad at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>go out with someone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>have a date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feel anger toward somebody</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slip my mind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forget sth by accident</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mope</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to show that you are very sad or unhappy, or perhaps disappointed with someone or something.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make up for sth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to do something nice for another person because you feel sorry for something you did</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">wait it out </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>do not do anything, hoping that the situation will get better</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blow over</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wait until things become better or wait until a problem solves itself</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">get over it </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>somewhat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to some degree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no longer be bothered by something bad that has happened to you, be noted that this expression somewhat rude to someone.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>belated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>happening later than it should. A belated happy birthday.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">double up </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to do twice as much as what you would normally do.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">sore spot </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>痛点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>metaphorically</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐喻地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to make up for</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atone for</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blow sth completely out of proportion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exaggerate sth. To make a problem seem as though it is more important than it really is.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂物大甩卖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后备箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1122,6 +1450,13 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1143,10 +1478,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1441,10 +1777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:C128"/>
+  <dimension ref="A3:C171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="B128" sqref="B128"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="B166" sqref="B166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2195,11 +2531,17 @@
       <c r="B108" t="s">
         <v>191</v>
       </c>
+      <c r="C108" s="1" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="109" spans="1:3">
       <c r="B109" t="s">
         <v>192</v>
       </c>
+      <c r="C109" s="1" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111">
@@ -2224,6 +2566,9 @@
       <c r="B113" t="s">
         <v>197</v>
       </c>
+      <c r="C113" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="114" spans="1:3">
       <c r="B114" t="s">
@@ -2326,6 +2671,334 @@
     <row r="128" spans="1:3">
       <c r="A128">
         <v>1281</v>
+      </c>
+      <c r="B128" t="s">
+        <v>225</v>
+      </c>
+      <c r="C128" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="B129" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="B130" t="s">
+        <v>227</v>
+      </c>
+      <c r="C130" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="B131" t="s">
+        <v>228</v>
+      </c>
+      <c r="C131" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="B132" t="s">
+        <v>229</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="B133" t="s">
+        <v>230</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="B134" t="s">
+        <v>231</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="B135" t="s">
+        <v>246</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="B136" t="s">
+        <v>232</v>
+      </c>
+      <c r="C136" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="B137" t="s">
+        <v>234</v>
+      </c>
+      <c r="C137" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="B138" t="s">
+        <v>238</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="B139" t="s">
+        <v>243</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="B140" t="s">
+        <v>247</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="B141" t="s">
+        <v>249</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143">
+        <v>1282</v>
+      </c>
+      <c r="C143" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="C144" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="B145" t="s">
+        <v>253</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="B146" t="s">
+        <v>254</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="B147" t="s">
+        <v>256</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="B148" t="s">
+        <v>258</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="B149" t="s">
+        <v>261</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="B150" t="s">
+        <v>263</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="B151" t="s">
+        <v>265</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="B152" t="s">
+        <v>267</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="B153" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="B154" t="s">
+        <v>270</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="B155" t="s">
+        <v>272</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157">
+        <v>1283</v>
+      </c>
+      <c r="B157" t="s">
+        <v>274</v>
+      </c>
+      <c r="C157" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="B158" t="s">
+        <v>275</v>
+      </c>
+      <c r="C158" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="B159" t="s">
+        <v>278</v>
+      </c>
+      <c r="C159" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="B160" t="s">
+        <v>280</v>
+      </c>
+      <c r="C160" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3">
+      <c r="B161" t="s">
+        <v>282</v>
+      </c>
+      <c r="C161" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3">
+      <c r="B162" t="s">
+        <v>284</v>
+      </c>
+      <c r="C162" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3">
+      <c r="B163" t="s">
+        <v>286</v>
+      </c>
+      <c r="C163" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3">
+      <c r="B164" t="s">
+        <v>288</v>
+      </c>
+      <c r="C164" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3">
+      <c r="B165" t="s">
+        <v>289</v>
+      </c>
+      <c r="C165" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3">
+      <c r="B166" t="s">
+        <v>292</v>
+      </c>
+      <c r="C166" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="167" spans="2:3">
+      <c r="B167" t="s">
+        <v>294</v>
+      </c>
+      <c r="C167" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3">
+      <c r="B168" t="s">
+        <v>296</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3">
+      <c r="B169" t="s">
+        <v>298</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="170" spans="2:3">
+      <c r="B170" t="s">
+        <v>301</v>
+      </c>
+      <c r="C170" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3">
+      <c r="B171" t="s">
+        <v>302</v>
+      </c>
+      <c r="C171" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>

--- a/english_note.xlsx
+++ b/english_note.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="492">
   <si>
     <t>respond</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1415,6 +1415,1323 @@
   </si>
   <si>
     <t>后备箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hold onto someone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>put your arms or hands on someone so that the person can't leave, or escape</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>restrain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make it difficult or impossible for a person to move</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoplifting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.shoplift, steal something from a shop/store--usually a small item, something that isn't worth a lot of money.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delinquent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a young person who commits a crime or who does things that are against the law.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>standpoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>viewpoint, perspective</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make restitution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return or pay for something that was stolen, or perhaps to make up for sth bad that you did to someone else by giving that person money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>尚未落定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bai</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的罪名往往叫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>offence</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已经</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>du</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>落定的罪通常才</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>zhi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>叫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>crime.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>因此，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">daooffender </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可译成违犯者；而</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>criminal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>译成罪犯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>zhuan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>更为贴切</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>shu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。有人违犯交通法规或乱穿马路，他可以是一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>offender</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，但未必是一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>criminal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commit an offence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>round--&gt;oval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>圆形</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>椭圆</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fruit stand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a small store, basically, that sells fruit, usually outside.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vigilant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to be very careful about dangers or threats around you</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all this over sth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nip sth in the bud</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to solve a problem early, when it's still a small problem, before it becomes more serious or a bigger problem.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commendation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can you believe it?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>when something surprising happens, we can use this expression</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>something that is given to someone in a competition so that other people can look at it or evaluate it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>submisson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>similar as entry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>science fair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>competition/contest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>· A contest is usually declared and prizes announced for winners, but often there is an unspoken competition between individuals going on as in a classroom, workplace, an industry, or even between nations to have hegemony in a particular area.
+· Competition is a bigger word, both literally as well as figuratively, than a contest. But when it comes to definitions, both are used to refer to the other.
+· Competition is a feeling of rivalry between animals and even human beings to have better and more of resources (and even mates).
+Contests are gentler in comparison to competitions.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a competition that some schools or organizations have for students, usually young students - students that are in grade school or high school.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">hand out </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to give sth to people</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grade/high school</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中学</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trophy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a type of award--usually it is a bowl or a cup, but it might also be a figure of a man or a woman that represents victory.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;SYN&gt;class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>any kind of award or praise that you give to someone who has won a contest or a competition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plaque</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a square or, in any case, rectangular piece of wood or metal that has the name of the contest and often the name of the winner on it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ribbon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a small rectangular piece of cloth, often with words on it--similar to plaque except it's made out of cloth and is much less expensive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recognition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赞赏&lt;SYN&gt;praise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>honorable mention</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if you don't win a prize at a school competition, you will sometimes be given an award that is called an "honorable mention"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serve as</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>certificate/certification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>证书</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>合格证明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鉴定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>课程结业证明</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>empty-handed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>without anything</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ache</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>couch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sofa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sympathy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pity, compassion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>throb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>have a very painfull feeling that starts and stops regularly. Usually use this word to describe what a heart does.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pounding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the feeling, or we might say the sensation, of being hit repeatedly -- over and over again.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pain, headache, stomachache, and so forth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to reduce pain or to get rid of pain.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sth comes on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it begins very quickly or without warning.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sinuses headache</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a headache caused by pain in, of course, your sinuses. Your sinuses are in your head.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鼻窦</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nauseous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;adj&gt;describes a feeling in your stomach that you're going to be sick--that you're going to, we would say, "throw up" or "vomit"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>migraine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a very, very intense headache that causes a lot of pain.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to stock something means for a store to have something available to sell you. In stock, out of stock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mudlle through</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to be able to do something that is difficult even when you don't have the necessary experience, education or skills to do it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plug sth in/into or plug sth in/into</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>plug&lt;v, n&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>插入，插头</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>socket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sometimes called a "wall socket", is that thing in the wall that has electricity running to it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>destroy sth or ruin sth, especially an electronic device, because of an inappropriate or improper amount of electricity used with it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>one of those short pieces of metal that comes out of a plug that is used to connect the plug to the socket.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adapter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>small device that connects two things together that use different systems of connectors.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>connector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类似于手机充电线的接头，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>type-c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>lightening</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>converter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anything that changes the electrical current, such as from AC to DC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transformer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>something that changes the amount of voltage of the electric current from, say, 220, which is used commonly in Europe, to 110.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">outlet </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the same thing as a wall socket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">dual </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>two, or two types</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frayed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>used that for a rope or wire that has been used so much that it is starting to come apart.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">cord </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goes between your electronic device and the socket, the cord has the wires in it that connect your device to the socket.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>short circuit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blow a fuse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烧断保险丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>circuit breaker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比保险丝高级的断路器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>electrocute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be hurt or even killed by electricity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>singe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to be singed means to be burnt a little bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>job-hopper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a person who changes his/her work frequently||someone who moves jobs frequently, who doesn't stay at any one job for a long time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to visit somewhere or to go somewhere for a very short time, usually for an informal visit with someone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">stop by+n/at the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/someone</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grocery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>食品杂货铺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在美国英语中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>grocery store</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>常用以指</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>supermarket</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quit/fired</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>two way to stop working somewhere: quit-which is when you decide that you don't want to work at a place; fired-your company don't want you working here anymore.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">line up </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be ready to use or waiting for you to use</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>put out feelers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to ask people or to tell other people about something that you have that you think they may want, to see if they are interested.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lifer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refer to a person who works for one company his entire career or his entire life.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suicide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kill yourself</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>climb the corporate ladder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>work in a single company, going from one job to the next, each time getting a better job, but doing it slowly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the money that the company gives you after you retire, money that you will live on after you retire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">jump ship </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to leave a company or a organization and move to a different one, often when the company is having a difficult time.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cross paths with someone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to meet someone in the future by chance, by luck, not by planning it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all kinds of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>variety</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a standing pool of water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faucet/tap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>potable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sewage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a small area or a small "body", we would call it, of water that is not moving</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>puddle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>another word that used to for a very small amount of water that you see on the ground</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAmE/BrE  the metal device that you get water from, usually in a sink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>runoff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>water that usually has gone over some surface such as the roof of a house. It has "drained", we would say, away from your roof.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>something we use to bathe in. You can get yourself clean with soap and water in a bathtub. It can refer to any large container used for washing, and so forth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>something you can drink, something that is safe to drink. Not all water, of course, is safe to drink for humans.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it is what we call wasterwater. It's any sort of water or liquid that has something dirty in it. Untreated water, filtered water, purified water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>picky</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">to be very selective about what you eat or drink, or what you will accept. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quench</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quench one's thirst, means to drink something so that you are no longer thirsty.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>at most--at least</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至多，至少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It does 0 to 60 in four seconds.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>does or goes. To describe how fast a car can accelerate, how fast it can speed up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>according to what is generally thought or believed but not known for certain</t>
+  </si>
+  <si>
+    <t>supposedly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>top out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to reach the highest value of something, or to reach what we might call the "upper limit" of something.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">be clocked at </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be recorded at a paticular speed or to be proven by someone else measuring the speed to be actually faster.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>horsepower/torque</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>马克</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>扭矩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  how we measure the power of a motor or an engine.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pedal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a long piece of plastic or metal that you press on with your foot to make the car go faster. We call that pedal the "accelerator"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slows down or stops a car.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPMs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the revolution per minute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>axis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a measure of how something moves around what we call an "axis"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The acceleration is really smooth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it feels as though there are no bumps, or that you don't have any difficulty going from one speed to another.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">in the shop </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if your car is in the shop, it is being fixed.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enthusiast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>someone who loves something, who's very interested in something.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1422,7 +2739,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1457,6 +2774,19 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1478,11 +2808,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1777,10 +3117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:C171"/>
+  <dimension ref="A3:C275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="B166" sqref="B166"/>
+    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
+      <selection activeCell="B276" sqref="B276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2913,7 +4253,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="161" spans="2:3">
+    <row r="161" spans="1:3">
       <c r="B161" t="s">
         <v>282</v>
       </c>
@@ -2921,7 +4261,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="162" spans="2:3">
+    <row r="162" spans="1:3">
       <c r="B162" t="s">
         <v>284</v>
       </c>
@@ -2929,7 +4269,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="163" spans="2:3">
+    <row r="163" spans="1:3">
       <c r="B163" t="s">
         <v>286</v>
       </c>
@@ -2937,7 +4277,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="164" spans="2:3">
+    <row r="164" spans="1:3">
       <c r="B164" t="s">
         <v>288</v>
       </c>
@@ -2945,7 +4285,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="165" spans="2:3">
+    <row r="165" spans="1:3">
       <c r="B165" t="s">
         <v>289</v>
       </c>
@@ -2953,7 +4293,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="166" spans="2:3">
+    <row r="166" spans="1:3">
       <c r="B166" t="s">
         <v>292</v>
       </c>
@@ -2961,7 +4301,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="167" spans="2:3">
+    <row r="167" spans="1:3">
       <c r="B167" t="s">
         <v>294</v>
       </c>
@@ -2969,7 +4309,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="168" spans="2:3">
+    <row r="168" spans="1:3">
       <c r="B168" t="s">
         <v>296</v>
       </c>
@@ -2977,7 +4317,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="169" spans="2:3">
+    <row r="169" spans="1:3">
       <c r="B169" t="s">
         <v>298</v>
       </c>
@@ -2985,7 +4325,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="170" spans="2:3">
+    <row r="170" spans="1:3">
       <c r="B170" t="s">
         <v>301</v>
       </c>
@@ -2993,7 +4333,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="171" spans="2:3">
+    <row r="171" spans="1:3">
       <c r="B171" t="s">
         <v>302</v>
       </c>
@@ -3001,7 +4341,785 @@
         <v>303</v>
       </c>
     </row>
+    <row r="173" spans="1:3">
+      <c r="A173">
+        <v>1284</v>
+      </c>
+      <c r="B173" t="s">
+        <v>306</v>
+      </c>
+      <c r="C173" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="B174" t="s">
+        <v>308</v>
+      </c>
+      <c r="C174" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="B175" t="s">
+        <v>310</v>
+      </c>
+      <c r="C175" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="B176" t="s">
+        <v>312</v>
+      </c>
+      <c r="C176" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="B177" t="s">
+        <v>314</v>
+      </c>
+      <c r="C177" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="B178" t="s">
+        <v>316</v>
+      </c>
+      <c r="C178" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="B179" t="s">
+        <v>319</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="B180" t="s">
+        <v>318</v>
+      </c>
+      <c r="C180" s="6"/>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="B181" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="B182" t="s">
+        <v>322</v>
+      </c>
+      <c r="C182" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="B183" t="s">
+        <v>324</v>
+      </c>
+      <c r="C183" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="B184" t="s">
+        <v>326</v>
+      </c>
+      <c r="C184" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="B185" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="B186" t="s">
+        <v>329</v>
+      </c>
+      <c r="C186" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188">
+        <v>1285</v>
+      </c>
+      <c r="B188" t="s">
+        <v>331</v>
+      </c>
+      <c r="C188" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="B189" t="s">
+        <v>332</v>
+      </c>
+      <c r="C189" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="B190" t="s">
+        <v>334</v>
+      </c>
+      <c r="C190" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="B191" t="s">
+        <v>336</v>
+      </c>
+      <c r="C191" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="B192" t="s">
+        <v>338</v>
+      </c>
+      <c r="C192" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="84.75" customHeight="1">
+      <c r="B193" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="B194" t="s">
+        <v>342</v>
+      </c>
+      <c r="C194" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="B195" t="s">
+        <v>344</v>
+      </c>
+      <c r="C195" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="B196" t="s">
+        <v>346</v>
+      </c>
+      <c r="C196" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="B197" t="s">
+        <v>348</v>
+      </c>
+      <c r="C197" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="B198" t="s">
+        <v>351</v>
+      </c>
+      <c r="C198" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="B199" t="s">
+        <v>353</v>
+      </c>
+      <c r="C199" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="B200" t="s">
+        <v>355</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="B201" t="s">
+        <v>357</v>
+      </c>
+      <c r="C201" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="B202" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="B203" t="s">
+        <v>360</v>
+      </c>
+      <c r="C203" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="B204" t="s">
+        <v>362</v>
+      </c>
+      <c r="C204" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206">
+        <v>1286</v>
+      </c>
+      <c r="B206" t="s">
+        <v>364</v>
+      </c>
+      <c r="C206" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="B207" t="s">
+        <v>365</v>
+      </c>
+      <c r="C207" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="B208" t="s">
+        <v>367</v>
+      </c>
+      <c r="C208" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="B209" t="s">
+        <v>369</v>
+      </c>
+      <c r="C209" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="B210" t="s">
+        <v>371</v>
+      </c>
+      <c r="C210" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="B211" t="s">
+        <v>374</v>
+      </c>
+      <c r="C211" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="B212" t="s">
+        <v>376</v>
+      </c>
+      <c r="C212" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="B213" t="s">
+        <v>378</v>
+      </c>
+      <c r="C213" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="B214" t="s">
+        <v>380</v>
+      </c>
+      <c r="C214" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="B215" t="s">
+        <v>382</v>
+      </c>
+      <c r="C215" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="B216" t="s">
+        <v>384</v>
+      </c>
+      <c r="C216" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="B217" t="s">
+        <v>386</v>
+      </c>
+      <c r="C217" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219">
+        <v>1287</v>
+      </c>
+      <c r="B219" t="s">
+        <v>388</v>
+      </c>
+      <c r="C219" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="B220" t="s">
+        <v>390</v>
+      </c>
+      <c r="C220" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="B221" t="s">
+        <v>392</v>
+      </c>
+      <c r="C221" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="B222" t="s">
+        <v>394</v>
+      </c>
+      <c r="C222" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="B223" t="s">
+        <v>396</v>
+      </c>
+      <c r="C223" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="B224" t="s">
+        <v>398</v>
+      </c>
+      <c r="C224" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="B225" t="s">
+        <v>400</v>
+      </c>
+      <c r="C225" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="B226" t="s">
+        <v>402</v>
+      </c>
+      <c r="C226" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="B227" t="s">
+        <v>404</v>
+      </c>
+      <c r="C227" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="B228" t="s">
+        <v>406</v>
+      </c>
+      <c r="C228" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="B229" t="s">
+        <v>408</v>
+      </c>
+      <c r="C229" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="B230" t="s">
+        <v>410</v>
+      </c>
+      <c r="C230" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="B231" t="s">
+        <v>412</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="B232" t="s">
+        <v>414</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="B233" t="s">
+        <v>416</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="B234" t="s">
+        <v>418</v>
+      </c>
+      <c r="C234" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="B235" t="s">
+        <v>420</v>
+      </c>
+      <c r="C235" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237">
+        <v>1288</v>
+      </c>
+      <c r="B237" t="s">
+        <v>422</v>
+      </c>
+      <c r="C237" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="B238" t="s">
+        <v>425</v>
+      </c>
+      <c r="C238" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="B239" t="s">
+        <v>426</v>
+      </c>
+      <c r="C239" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="B240" t="s">
+        <v>428</v>
+      </c>
+      <c r="C240" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="B241" t="s">
+        <v>430</v>
+      </c>
+      <c r="C241" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="B242" t="s">
+        <v>432</v>
+      </c>
+      <c r="C242" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="B243" t="s">
+        <v>434</v>
+      </c>
+      <c r="C243" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="B244" t="s">
+        <v>436</v>
+      </c>
+      <c r="C244" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="B245" t="s">
+        <v>438</v>
+      </c>
+      <c r="C245" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="B246" t="s">
+        <v>440</v>
+      </c>
+      <c r="C246" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="B247" t="s">
+        <v>442</v>
+      </c>
+      <c r="C247" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="B248" t="s">
+        <v>444</v>
+      </c>
+      <c r="C248" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250">
+        <v>1289</v>
+      </c>
+      <c r="B250" t="s">
+        <v>446</v>
+      </c>
+      <c r="C250" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="B251" t="s">
+        <v>448</v>
+      </c>
+      <c r="C251" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="B252" t="s">
+        <v>453</v>
+      </c>
+      <c r="C252" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="B253" t="s">
+        <v>449</v>
+      </c>
+      <c r="C253" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="B254" t="s">
+        <v>450</v>
+      </c>
+      <c r="C254" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="B255" t="s">
+        <v>451</v>
+      </c>
+      <c r="C255" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="B256" t="s">
+        <v>466</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="B257" t="s">
+        <v>456</v>
+      </c>
+      <c r="C257" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="B258" t="s">
+        <v>458</v>
+      </c>
+      <c r="C258" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="B259" t="s">
+        <v>462</v>
+      </c>
+      <c r="C259" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="B260" t="s">
+        <v>464</v>
+      </c>
+      <c r="C260" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262">
+        <v>1290</v>
+      </c>
+      <c r="B262" t="s">
+        <v>468</v>
+      </c>
+      <c r="C262" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="B263" t="s">
+        <v>471</v>
+      </c>
+      <c r="C263" s="7" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="B264" t="s">
+        <v>472</v>
+      </c>
+      <c r="C264" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="B265" t="s">
+        <v>474</v>
+      </c>
+      <c r="C265" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="B266" t="s">
+        <v>476</v>
+      </c>
+      <c r="C266" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="B267" t="s">
+        <v>478</v>
+      </c>
+      <c r="C267" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="B268" t="s">
+        <v>480</v>
+      </c>
+      <c r="C268" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="B269" t="s">
+        <v>482</v>
+      </c>
+      <c r="C269" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="B270" t="s">
+        <v>484</v>
+      </c>
+      <c r="C270" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="B271" t="s">
+        <v>486</v>
+      </c>
+      <c r="C271" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="B272" t="s">
+        <v>488</v>
+      </c>
+      <c r="C272" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="B273" t="s">
+        <v>490</v>
+      </c>
+      <c r="C273" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275">
+        <v>1291</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C179:C180"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/english_note.xlsx
+++ b/english_note.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="523">
   <si>
     <t>respond</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2732,6 +2732,241 @@
   </si>
   <si>
     <t>someone who loves something, who's very interested in something.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You're not going to believe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to use when we are about to say something that is surprising or perhaps difficult to believe.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refer to the outside, if you will, of things that are in the house -- the surfaces in the house.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finishes&lt;n.&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interior decorator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a person who is responsible for making the inside of your house or your office look nice.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jewelry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>such as rings, pendants</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anything that is attached, or fixed, to something else, such as faucets, showerhead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chemical symbol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Au, Pt…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stainless steel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a metal that has another metal mixed with it called "chromium" that can prevents the steel from rusting, from turning a orange color.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bronze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>an orange-golden combination of metals, usually made from copper and some other metal, often tin. It's what we call an "alloy"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sculpture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sculpture is a hypernym of statue.
+As nouns the difference between sculpture and statue is that sculpture is (uncountable) the art of shaping figures or designs in the round or in relief, professionally performed by a sculptor while statue is a three-dimensional work of art, usually representing a person or animal, usually created by sculpting, carving, molding, or casting.
+As verbs the difference between sculpture and statue is that sculpture is to fashion something into a three-dimensional figure while statue is to form a statue of; to make into a statue.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atomic number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周期表序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>run-of-the-mill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>describe something that is standard, ordinary, usual.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stock the kitchen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stock, means to have something available so that the, in this case, client can use it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>platinum/nickel/chromium/tin/aluminum/titanium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>白金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>镍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>铬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>锡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>铝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>钛</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cater to someone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>do exactly what that person wants.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>celebrity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>famous people</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2808,7 +3043,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2819,10 +3054,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3117,10 +3358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:C275"/>
+  <dimension ref="A3:C290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
-      <selection activeCell="B276" sqref="B276"/>
+    <sheetView tabSelected="1" topLeftCell="A273" workbookViewId="0">
+      <selection activeCell="B290" sqref="B290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4396,7 +4637,7 @@
       <c r="B179" t="s">
         <v>319</v>
       </c>
-      <c r="C179" s="6" t="s">
+      <c r="C179" s="7" t="s">
         <v>320</v>
       </c>
     </row>
@@ -4404,7 +4645,7 @@
       <c r="B180" t="s">
         <v>318</v>
       </c>
-      <c r="C180" s="6"/>
+      <c r="C180" s="7"/>
     </row>
     <row r="181" spans="1:3">
       <c r="B181" t="s">
@@ -5027,7 +5268,7 @@
       <c r="B263" t="s">
         <v>471</v>
       </c>
-      <c r="C263" s="7" t="s">
+      <c r="C263" s="6" t="s">
         <v>470</v>
       </c>
     </row>
@@ -5115,10 +5356,135 @@
       <c r="A275">
         <v>1291</v>
       </c>
+      <c r="B275" t="s">
+        <v>495</v>
+      </c>
+      <c r="C275" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="B276" t="s">
+        <v>492</v>
+      </c>
+      <c r="C276" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="B277" t="s">
+        <v>496</v>
+      </c>
+      <c r="C277" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="B278" t="s">
+        <v>498</v>
+      </c>
+      <c r="C278" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="B279" t="s">
+        <v>500</v>
+      </c>
+      <c r="C279" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="B280" t="s">
+        <v>517</v>
+      </c>
+      <c r="C280" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="B281" t="s">
+        <v>502</v>
+      </c>
+      <c r="C281" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="B282" t="s">
+        <v>504</v>
+      </c>
+      <c r="C282" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="B283" t="s">
+        <v>506</v>
+      </c>
+      <c r="C283" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" ht="45" customHeight="1">
+      <c r="B284" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="C284" s="9" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" ht="45" customHeight="1">
+      <c r="B285" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="C285" s="8"/>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="B286" t="s">
+        <v>511</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="B287" t="s">
+        <v>513</v>
+      </c>
+      <c r="C287" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="B288" t="s">
+        <v>515</v>
+      </c>
+      <c r="C288" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="289" spans="2:3">
+      <c r="B289" t="s">
+        <v>519</v>
+      </c>
+      <c r="C289" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="290" spans="2:3">
+      <c r="B290" t="s">
+        <v>521</v>
+      </c>
+      <c r="C290" t="s">
+        <v>522</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C179:C180"/>
+    <mergeCell ref="C284:C285"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/english_note.xlsx
+++ b/english_note.xlsx
@@ -8,15 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="ESL" sheetId="1" r:id="rId1"/>
-    <sheet name="The Sun Also Rise" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Modern Family" sheetId="3" r:id="rId2"/>
+    <sheet name="The Sun Also Rise" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="683">
   <si>
     <t>respond</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2967,6 +2967,740 @@
   </si>
   <si>
     <t>famous people</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rough, disgusted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to sell something</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>same as 'and so on', 'and all the rest', 'et cetera'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cut something into pieces</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to describe the sound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merchandise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refers to things that you sell, see also "goods"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to be in control or to have power over someone else</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>give someone money that you owe that person, especially when you don't really want to give him money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resort to violenct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to start hurting other people physically or even killing people.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shakedown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">when someone discovers something bad about you, that if other people found out would be embarrassing or hurt you in some way. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>勒索</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>racket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;informal&gt;same as shakedown.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extortion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>same as shakedown, racket. It's a crime.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>squeal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to report someone's bad or illegal behavior to the government or the police or the teacher. It is meant to have a negative connotation.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tattle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to report someone to the authorities.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tell on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tell on someone. This is a bad thing, probably because we value loyalty, protecting our friends and relationships.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>have sth torched</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>someone started a fire to burn it down in order to destroy it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>go up against</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oppose someone or to try to beat someone, especially someone who's powerful.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lay off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to stop doing something.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stick your neck out for someone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>or "stick your neck out". To do something that might cause you harm, to do something "risky", to do something dangerous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>funeral</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a service or a ceremony or simply some event that is done when someone dies, usually to remember that person.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your funeral won't be on my head.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mean business</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to be very serious about what you do, to not be joking or pretending</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Episode1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Would you get them?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Just a sec.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outfit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's way too short</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Luke got his head stuck in the banister again.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I was out of control growing up.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I said it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我承认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Where's the penalty?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>怎么没人吹犯规？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赛场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He tripped him</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他下绊子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Let's take it down a notch.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小点声</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I've wanted to tell her off for the last 6 weeks.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>She's adorable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We had initially asked one of our lesbian friends to be a surrogate.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Then we figured…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Everybody fawning over Lily.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大家都在逗莉莉玩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I gotta buy a motorized tie rack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要买个电动领带架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>headset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm the cool dad. That's my thing. I'm hip. I surf the web</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Language!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别说脏话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I have had it!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>means that somebody is no longer able to tolerate or allow something</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>put up with it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>same as tolerate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">to be fed up </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"I am fed up", means he's angry. He's mad and he doesn't want to put up with, or tolerate, a situation any longer.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ann has a problem with Jim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to get back on your feet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>when you have been in difficult situation and you need time before you can go back and do the things you normally do.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to be in someone's way</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>means to be preventing another person from doing what that person wants</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make a loud noise when you are sleeping, usually with your nose and mouth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hiccup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>involuntarily</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不自觉地，无心地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wheeze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>breathe in, making a very loud sound.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>can't help it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>have no power over the situation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make a loud noise when you are breathe in, but more with your nose than with your lungs. It's sort of like snoring, but you do it when you're awake.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In fact, that is the way we describe the noise of a pig, "to snort".</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">make a noise, without wanting to, that sounds a little like a cough but usually is a higher pitch and is something that </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goes on for a certain number of minutes, perhaps, or even longer.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to crack your knuckles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make a noise with the bones in your hands.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to drive someone up the wall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make someone crazy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>break a bad habit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stop doing something that is bad for you.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>burp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make a loud noise allowing air to escape from you stomach, often because you have eaten something and you have what is called "gas"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;informal&gt;A more polite way might be saying "to pass gas"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;slang.&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可怕</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orphanage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cream puffs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泡芙/娘娘腔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note to all of you who judge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你们这些搞歧视的人给我听好了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Love knows no race, creed, or gender.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱不分种族，信仰，或性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>small-minded</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小心眼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOL-laugh out loud  WTF-what the fuck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You don't have to be so emotional all the time. That's all I am saying</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You're with me on this</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这件事你站在我这边</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stepdad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>puffy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(of eyes, faces, etc. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>眼睛、面部等</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">)looking swollen (=larger, rounder, etc. than usual) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鼓胀的；肿胀的</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>declare your love for…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向..表白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flagpole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旗杆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if it toughens him up a little bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toughen:使…坚韧；使…顽固</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>we tore you away from everything you know</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tear away强行拉走，强迫离开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>high school---senior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高中-高三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盯得（某人）不敢对视</t>
+  </si>
+  <si>
+    <t>stare down at someone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I could defeat you if it came to a phyical confrontation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单挑的话， 我轻而易举就能放到你</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I put my thoughts into words and now my words into action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stop being a gloomy goose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gloomy goose&lt;slang&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You be the wind in his back, not the spit in his face</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你只可背后送春风，不可当面唾其脸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gorgeous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华丽的，灿烂的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a crisp salty biscuit in the shape of a knot or stick, often served with drinks at a party 椒盐卷饼（常作小吃）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pretzel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>breast-feed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.以母乳喂养；喝母乳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coin-op</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自助投币机，例如coin-op car wash自助洗车站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Would you get in the spirit of things?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I want you to just come straight out with it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要你对他们实话实说</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chest bump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撞胸(表示庆祝)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multicolored coat and bejeweled cap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缤纷外套，闪亮小帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Let me see the little pot sticker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>让我看看你这跟屁虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We're from different world, yet we somehow fit together</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们来自不同的世界，但我们彼此相容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Love is what binds us, through fair or stormy weather.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱将我们紧紧相连，共度风风雨雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Episode2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3043,7 +3777,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3055,14 +3789,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3358,10 +4093,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:C290"/>
+  <dimension ref="A3:C330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A273" workbookViewId="0">
-      <selection activeCell="B290" sqref="B290"/>
+    <sheetView tabSelected="1" topLeftCell="A309" workbookViewId="0">
+      <selection activeCell="B330" sqref="B330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3766,6 +4501,9 @@
       <c r="B56" t="s">
         <v>109</v>
       </c>
+      <c r="C56" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="57" spans="1:3">
       <c r="B57" t="s">
@@ -3776,6 +4514,9 @@
       <c r="B58" t="s">
         <v>111</v>
       </c>
+      <c r="C58" t="s">
+        <v>524</v>
+      </c>
     </row>
     <row r="59" spans="1:3">
       <c r="B59" t="s">
@@ -3937,6 +4678,9 @@
       <c r="B81" t="s">
         <v>149</v>
       </c>
+      <c r="C81" t="s">
+        <v>525</v>
+      </c>
     </row>
     <row r="82" spans="1:3">
       <c r="B82" t="s">
@@ -4018,6 +4762,9 @@
       <c r="B94" t="s">
         <v>168</v>
       </c>
+      <c r="C94" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="95" spans="1:3">
       <c r="B95" t="s">
@@ -4240,6 +4987,9 @@
       <c r="B125" t="s">
         <v>220</v>
       </c>
+      <c r="C125" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="126" spans="1:3">
       <c r="B126" t="s">
@@ -4637,7 +5387,7 @@
       <c r="B179" t="s">
         <v>319</v>
       </c>
-      <c r="C179" s="7" t="s">
+      <c r="C179" s="8" t="s">
         <v>320</v>
       </c>
     </row>
@@ -4645,7 +5395,7 @@
       <c r="B180" t="s">
         <v>318</v>
       </c>
-      <c r="C180" s="7"/>
+      <c r="C180" s="8"/>
     </row>
     <row r="181" spans="1:3">
       <c r="B181" t="s">
@@ -5439,7 +6189,7 @@
       <c r="B285" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="C285" s="8"/>
+      <c r="C285" s="10"/>
     </row>
     <row r="286" spans="1:3">
       <c r="B286" t="s">
@@ -5465,7 +6215,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="289" spans="2:3">
+    <row r="289" spans="1:3">
       <c r="B289" t="s">
         <v>519</v>
       </c>
@@ -5473,12 +6223,299 @@
         <v>520</v>
       </c>
     </row>
-    <row r="290" spans="2:3">
+    <row r="290" spans="1:3">
       <c r="B290" t="s">
         <v>521</v>
       </c>
       <c r="C290" t="s">
         <v>522</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292">
+        <v>1292</v>
+      </c>
+      <c r="B292" t="s">
+        <v>528</v>
+      </c>
+      <c r="C292" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="B293" t="s">
+        <v>530</v>
+      </c>
+      <c r="C293" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="B294" t="s">
+        <v>532</v>
+      </c>
+      <c r="C294" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="B295" t="s">
+        <v>534</v>
+      </c>
+      <c r="C295" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="B296" t="s">
+        <v>536</v>
+      </c>
+      <c r="C296" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="B297" t="s">
+        <v>538</v>
+      </c>
+      <c r="C297" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="B298" t="s">
+        <v>540</v>
+      </c>
+      <c r="C298" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="B299" t="s">
+        <v>559</v>
+      </c>
+      <c r="C299" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="B300" t="s">
+        <v>542</v>
+      </c>
+      <c r="C300" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="B301" t="s">
+        <v>544</v>
+      </c>
+      <c r="C301" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="B302" t="s">
+        <v>546</v>
+      </c>
+      <c r="C302" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="B303" t="s">
+        <v>548</v>
+      </c>
+      <c r="C303" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="B304" t="s">
+        <v>550</v>
+      </c>
+      <c r="C304" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="B305" t="s">
+        <v>552</v>
+      </c>
+      <c r="C305" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="B306" t="s">
+        <v>554</v>
+      </c>
+      <c r="C306" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="B307" t="s">
+        <v>556</v>
+      </c>
+      <c r="C307" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="B308" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310">
+        <v>1293</v>
+      </c>
+      <c r="B310" t="s">
+        <v>590</v>
+      </c>
+      <c r="C310" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="B311" t="s">
+        <v>592</v>
+      </c>
+      <c r="C311" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="B312" t="s">
+        <v>594</v>
+      </c>
+      <c r="C312" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="B313" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="B314" t="s">
+        <v>597</v>
+      </c>
+      <c r="C314" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="B315" t="s">
+        <v>599</v>
+      </c>
+      <c r="C315" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="B316" t="s">
+        <v>601</v>
+      </c>
+      <c r="C316" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="B317" t="s">
+        <v>603</v>
+      </c>
+      <c r="C317" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="C318" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="B319" t="s">
+        <v>604</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="B320" t="s">
+        <v>606</v>
+      </c>
+      <c r="C320" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="B321" t="s">
+        <v>608</v>
+      </c>
+      <c r="C321" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="B322" t="s">
+        <v>610</v>
+      </c>
+      <c r="C322" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="C323" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="B324" t="s">
+        <v>615</v>
+      </c>
+      <c r="C324" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="B325" t="s">
+        <v>617</v>
+      </c>
+      <c r="C325" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="B326" t="s">
+        <v>619</v>
+      </c>
+      <c r="C326" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="B327" t="s">
+        <v>621</v>
+      </c>
+      <c r="C327" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="B328" t="s">
+        <v>623</v>
+      </c>
+      <c r="C328" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330">
+        <v>1294</v>
       </c>
     </row>
   </sheetData>
@@ -5493,6 +6530,397 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:C56"/>
+  <sheetViews>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="57.875" customWidth="1"/>
+    <col min="3" max="3" width="88.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" t="s">
+        <v>569</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" t="s">
+        <v>571</v>
+      </c>
+      <c r="C11" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" t="s">
+        <v>573</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" t="s">
+        <v>575</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" t="s">
+        <v>581</v>
+      </c>
+      <c r="C18" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" t="s">
+        <v>582</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" t="s">
+        <v>584</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" t="s">
+        <v>626</v>
+      </c>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" t="s">
+        <v>627</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" t="s">
+        <v>629</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" t="s">
+        <v>631</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" t="s">
+        <v>633</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" t="s">
+        <v>588</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" t="s">
+        <v>636</v>
+      </c>
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" t="s">
+        <v>640</v>
+      </c>
+      <c r="C33" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" t="s">
+        <v>642</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" t="s">
+        <v>644</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" t="s">
+        <v>646</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" t="s">
+        <v>648</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" t="s">
+        <v>650</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" t="s">
+        <v>653</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" t="s">
+        <v>654</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42" t="s">
+        <v>657</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="B43" t="s">
+        <v>659</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44" t="s">
+        <v>661</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45" t="s">
+        <v>664</v>
+      </c>
+      <c r="C45" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46" t="s">
+        <v>665</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47" t="s">
+        <v>667</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="B49" t="s">
+        <v>670</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="B50" t="s">
+        <v>672</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="B51" t="s">
+        <v>674</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="B52" t="s">
+        <v>676</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="B53" t="s">
+        <v>678</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="B54" t="s">
+        <v>680</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>682</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:I7"/>
   <sheetViews>
@@ -5581,17 +7009,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/english_note.xlsx
+++ b/english_note.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ESL" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="744">
   <si>
     <t>respond</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3701,6 +3701,422 @@
   </si>
   <si>
     <t>Episode2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chaperone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cut out for</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to have the right experience or preparation to deal with something or handle something.Simply, be prepared for something</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;n.&gt;a person who supervise or be responsible for another person or group, especially a group of children or teenagers.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;v.&gt;It's the act of supervising or taking care of usually a group of younger students.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>field trip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>when a group of students goes to a certain place in their city or town for several hours as part of their education, like, museum, park</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This field trip is to a children's museum.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on a field trip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注意：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>trip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用介词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>on</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volunteer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;v.&gt;ofter to do something without being paid for or without being required to do it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;n.&gt;a person who volunteers is called "volunteer".</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supervise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to monitor or to be responsible for someone's behavior.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>escort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;v.&gt;to go with person to make sure he is safe or to make sure that he does what he supposed to do.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;n.&gt;a person who is escorts another person to protect that person </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>动词与名词发音不同</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get out of hand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for a situation to not be controllalbe or to be unmanageable.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">overnight </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>from one day to another</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paramedic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doctor or paramedic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keep track of something or someone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay attention to and know the location of people</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>presumably</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>used to say that you think that sth is probably true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>permisson slips</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同意书，许可回执</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What’s the key to being a great dad? That's a tough one.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desiree just moved in down the block</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德西蕾刚搬过来--Desiree just (moved in) (down the block)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cottage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a small house, especially in the country 小屋；（尤指）村舍，小别墅, a holiday cottage度假小别墅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>That's creepy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;informal&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>很吓人</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>real estate mogul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地产大亨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We caravanned that house</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我们展览过那个房子。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>caravan:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（可供居住的）拖车，大篷车；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>英</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>活动住宅；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>美</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>移民列车</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>who is coconuts enough to divorce you?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谁傻到要跟你离婚？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We'll have to have you over sometime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有时间请你过来玩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He spilled a soda on my computer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他把一瓶苏打水倒在我的电脑上。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I worry about the ridicule he might get from some loudmouth bully</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我担心大嘴巴的小混混因此嘲笑他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toddler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a child who has only recently learnt to walk 学步的儿童；刚学会走路的孩子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paisley</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a detailed pattern of curved shapes that look like feathers, used especially on cloth 佩斯利（羽状）图案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Was there something wrong with fishnet tank top?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网眼套头衫为什么不穿了？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I just wanna make a good first impression</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You wanna fit in and not terrify the villagers?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你是想既融入大家又不吓到他们？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I don't wanna rub anyone the wrong way</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我不想惹谁不高兴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0339</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4093,10 +4509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:C330"/>
+  <dimension ref="A3:C348"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A309" workbookViewId="0">
-      <selection activeCell="B330" sqref="B330"/>
+    <sheetView topLeftCell="A321" workbookViewId="0">
+      <selection activeCell="B348" sqref="B348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6516,6 +6932,133 @@
     <row r="330" spans="1:3">
       <c r="A330">
         <v>1294</v>
+      </c>
+      <c r="B330" t="s">
+        <v>684</v>
+      </c>
+      <c r="C330" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="B331" t="s">
+        <v>683</v>
+      </c>
+      <c r="C331" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="C332" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="B333" t="s">
+        <v>688</v>
+      </c>
+      <c r="C333" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="B334" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="B335" t="s">
+        <v>691</v>
+      </c>
+      <c r="C335" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="B336" t="s">
+        <v>693</v>
+      </c>
+      <c r="C336" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="C337" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="B338" t="s">
+        <v>696</v>
+      </c>
+      <c r="C338" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="B339" t="s">
+        <v>698</v>
+      </c>
+      <c r="C339" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="C340" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="B341" t="s">
+        <v>701</v>
+      </c>
+      <c r="C341" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="B342" t="s">
+        <v>703</v>
+      </c>
+      <c r="C342" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="B343" t="s">
+        <v>705</v>
+      </c>
+      <c r="C343" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="B344" t="s">
+        <v>707</v>
+      </c>
+      <c r="C344" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="B345" t="s">
+        <v>711</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="B346" t="s">
+        <v>709</v>
+      </c>
+      <c r="C346" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348">
+        <v>1295</v>
       </c>
     </row>
   </sheetData>
@@ -6531,10 +7074,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:C56"/>
+  <dimension ref="A2:C72"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6912,6 +7455,131 @@
     <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>682</v>
+      </c>
+      <c r="B56" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="B57" t="s">
+        <v>714</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="B58" t="s">
+        <v>716</v>
+      </c>
+      <c r="C58" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="B59" t="s">
+        <v>718</v>
+      </c>
+      <c r="C59" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="B60" t="s">
+        <v>720</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="B61" t="s">
+        <v>722</v>
+      </c>
+      <c r="C61" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="B62" t="s">
+        <v>724</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="B63" t="s">
+        <v>726</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="B64" t="s">
+        <v>728</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
+      <c r="B65" t="s">
+        <v>730</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3">
+      <c r="B66" t="s">
+        <v>732</v>
+      </c>
+      <c r="C66" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3">
+      <c r="B67" t="s">
+        <v>734</v>
+      </c>
+      <c r="C67" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3">
+      <c r="B68" t="s">
+        <v>736</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3">
+      <c r="B69" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3">
+      <c r="B70" t="s">
+        <v>739</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3">
+      <c r="B71" t="s">
+        <v>741</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3">
+      <c r="B72" s="7" t="s">
+        <v>743</v>
       </c>
     </row>
   </sheetData>

--- a/english_note.xlsx
+++ b/english_note.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
   </bookViews>
   <sheets>
     <sheet name="ESL" sheetId="1" r:id="rId1"/>
@@ -4511,8 +4511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:C348"/>
   <sheetViews>
-    <sheetView topLeftCell="A321" workbookViewId="0">
-      <selection activeCell="B348" sqref="B348"/>
+    <sheetView tabSelected="1" topLeftCell="A321" workbookViewId="0">
+      <selection activeCell="B345" sqref="B345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7076,7 +7076,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:C72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+    <sheetView topLeftCell="A48" workbookViewId="0">
       <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>

--- a/english_note.xlsx
+++ b/english_note.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ESL" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="810">
   <si>
     <t>respond</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4117,6 +4117,270 @@
   </si>
   <si>
     <t>0339</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clerk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We have plenty to choose from</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wear it on the wrist of hand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pocket watch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wrist watch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keep it in your pocket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dress watch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a watch that you would wear to a formal or business event.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>understated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>simple and don't draw attention</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hands of a clock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a big hand--the longer of the two, a little hand--opposite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quartz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a kind of stone or crystal that is used to keep time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>automatic movement/self-winding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ watch uses the movement of the hand or the arm to help keep the watch going; it actually helps "wind" the watch.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>move a small knob, something that is on the side, typically, of a watch that is used to give the watch energy so that it keeps going.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>workmanship</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refer to the quality and skill with which something is made.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bezel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a small ring or circle around that crystal covering of the watch. Often it has numbers on it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wrist band or strap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The watch is held onto your wrist by a ~/~, made of leather or metal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diving watch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>you can use it to go swimming or down into the ocean or a lake.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chronograph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>another word for what is commonly called a "stopwatch" what you use to determine how long something is going on.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>luminous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it can be seen when it is dark out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The ~ of a clock or a watch is just another word for the face of it--the front of it that has the numbers on it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waterproof</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>something that is usually sealed so that the water will not harm it, will not damage it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diamonds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clear, hard stones that are very valuable.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wedding band</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goes around your finger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diamond-encrusted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decorated with diamands or that there are many diamonds on the watch itself.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a man of style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a man who has good taste</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No man of style would be without at least a dozen.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a large amount of money that a company gives a employee so that the employee leaves the company</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>senior employee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>someone who is high up in the organization -- perhaps someone who has been there a long time.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to get something in return</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to receive something in exchange for what you have done or have given someone else</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bridge the gap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make up the difference or to cover the difference between what you have now and what you need</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It makes sense for me to take the buyout.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm only two years from retirement.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm mid-career and the job market is tight.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>land something</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>means to get something, especially something that is difficult to get. Land job.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tempting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attractive, interesting, makes you want to do it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lump sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a large amount of money that you get all at one time. I give it to you in a lump sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>take the risk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">rat race </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>an expression we use to describe the difficulties and the unpleasantness of trying to make money, especially when you are competing against other people.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'll be the first one out the door.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Be their buddy.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟他们做朋友</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4509,10 +4773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:C348"/>
+  <dimension ref="A3:C386"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A321" workbookViewId="0">
-      <selection activeCell="B345" sqref="B345"/>
+    <sheetView topLeftCell="A356" workbookViewId="0">
+      <selection activeCell="B386" sqref="B386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7059,6 +7323,276 @@
     <row r="348" spans="1:3">
       <c r="A348">
         <v>1295</v>
+      </c>
+      <c r="B348" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="B349" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="B350" t="s">
+        <v>748</v>
+      </c>
+      <c r="C350" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="B351" t="s">
+        <v>747</v>
+      </c>
+      <c r="C351" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="B352" t="s">
+        <v>750</v>
+      </c>
+      <c r="C352" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="353" spans="2:3">
+      <c r="B353" t="s">
+        <v>752</v>
+      </c>
+      <c r="C353" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="354" spans="2:3">
+      <c r="B354" t="s">
+        <v>754</v>
+      </c>
+      <c r="C354" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="355" spans="2:3">
+      <c r="B355" t="s">
+        <v>756</v>
+      </c>
+      <c r="C355" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="356" spans="2:3">
+      <c r="B356" t="s">
+        <v>758</v>
+      </c>
+      <c r="C356" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="357" spans="2:3">
+      <c r="B357" t="s">
+        <v>760</v>
+      </c>
+      <c r="C357" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="358" spans="2:3">
+      <c r="B358" t="s">
+        <v>762</v>
+      </c>
+      <c r="C358" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="359" spans="2:3">
+      <c r="B359" t="s">
+        <v>764</v>
+      </c>
+      <c r="C359" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="360" spans="2:3">
+      <c r="B360" t="s">
+        <v>766</v>
+      </c>
+      <c r="C360" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="361" spans="2:3">
+      <c r="B361" t="s">
+        <v>768</v>
+      </c>
+      <c r="C361" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="362" spans="2:3">
+      <c r="B362" t="s">
+        <v>770</v>
+      </c>
+      <c r="C362" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="363" spans="2:3">
+      <c r="B363" t="s">
+        <v>772</v>
+      </c>
+      <c r="C363" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="364" spans="2:3">
+      <c r="B364" t="s">
+        <v>774</v>
+      </c>
+      <c r="C364" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="365" spans="2:3">
+      <c r="B365" t="s">
+        <v>776</v>
+      </c>
+      <c r="C365" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="366" spans="2:3">
+      <c r="B366" t="s">
+        <v>778</v>
+      </c>
+      <c r="C366" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="367" spans="2:3">
+      <c r="B367" t="s">
+        <v>780</v>
+      </c>
+      <c r="C367" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="368" spans="2:3">
+      <c r="B368" t="s">
+        <v>782</v>
+      </c>
+      <c r="C368" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="B369" t="s">
+        <v>784</v>
+      </c>
+      <c r="C369" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="B370" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372">
+        <v>1296</v>
+      </c>
+      <c r="B372" t="s">
+        <v>787</v>
+      </c>
+      <c r="C372" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="B373" t="s">
+        <v>789</v>
+      </c>
+      <c r="C373" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="B374" t="s">
+        <v>791</v>
+      </c>
+      <c r="C374" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="B375" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="B376" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="B377" t="s">
+        <v>793</v>
+      </c>
+      <c r="C377" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="B378" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="B379" t="s">
+        <v>798</v>
+      </c>
+      <c r="C379" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
+      <c r="B380" t="s">
+        <v>800</v>
+      </c>
+      <c r="C380" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="B381" t="s">
+        <v>802</v>
+      </c>
+      <c r="C381" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="B382" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="B383" t="s">
+        <v>805</v>
+      </c>
+      <c r="C383" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
+      <c r="B384" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1">
+      <c r="A386">
+        <v>1297</v>
       </c>
     </row>
   </sheetData>
@@ -7074,10 +7608,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:C72"/>
+  <dimension ref="A2:C73"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7462,129 +7996,138 @@
     </row>
     <row r="57" spans="1:3">
       <c r="B57" t="s">
-        <v>714</v>
+        <v>808</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>715</v>
+        <v>809</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="B58" t="s">
-        <v>716</v>
-      </c>
-      <c r="C58" t="s">
-        <v>717</v>
+        <v>714</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="B59" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C59" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="B60" t="s">
-        <v>720</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>721</v>
+        <v>718</v>
+      </c>
+      <c r="C60" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="B61" t="s">
-        <v>722</v>
-      </c>
-      <c r="C61" t="s">
-        <v>723</v>
+        <v>720</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="B62" t="s">
-        <v>724</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>725</v>
+        <v>722</v>
+      </c>
+      <c r="C62" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="B63" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="B64" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="65" spans="2:3">
       <c r="B65" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="66" spans="2:3">
       <c r="B66" t="s">
-        <v>732</v>
-      </c>
-      <c r="C66" t="s">
-        <v>733</v>
+        <v>730</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="67" spans="2:3">
       <c r="B67" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C67" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="68" spans="2:3">
       <c r="B68" t="s">
-        <v>736</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>737</v>
+        <v>734</v>
+      </c>
+      <c r="C68" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="69" spans="2:3">
       <c r="B69" t="s">
-        <v>738</v>
+        <v>736</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="70" spans="2:3">
       <c r="B70" t="s">
-        <v>739</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="71" spans="2:3">
       <c r="B71" t="s">
+        <v>739</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3">
+      <c r="B72" t="s">
         <v>741</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="72" spans="2:3">
-      <c r="B72" s="7" t="s">
+    <row r="73" spans="2:3">
+      <c r="B73" s="7" t="s">
         <v>743</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/english_note.xlsx
+++ b/english_note.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
   </bookViews>
   <sheets>
     <sheet name="ESL" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="847">
   <si>
     <t>respond</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4381,6 +4381,166 @@
   </si>
   <si>
     <t>跟他们做朋友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">line up or have lined up </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to plan or to make ready or to schedule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>neighborhood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>an area within a city, that are usually given a name.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>community</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>another word for a neighborhood or area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>planned community</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>where someone has sat down and decided where everything is going to be. ~ are often built at once</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gated community</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a group of homes that is surrounded by a fence or a wall to provide protection and security for the people who live in that neighborhood.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bedroom community</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refer to small towns that are next to a large city, where many people move to when they don't want to live in the city itself</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suburb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in one's retirement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>retirement community</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lively</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活泼的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郊区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>historic district</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refer to an area in a city or town that is important for some reason, often it's the older part of town.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>redeveloped waterfront area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waterfront: an area in the city next to some water, maybe a river, a lake, the ocean.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pedestrian-friendly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in the middle of the action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>where lots of things are happening - an area, in this case, where there are a lot of people, a lot of excitement perhaps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>urban core</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the main or central part of a large city, not the bedroom communities, not the suburbs.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>downtown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the main, central, usually business section of the city. It's often, not always, the older part of the city.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enclave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a small area within the city with people who come from the same country, cultural background, or perhaps speak the same language.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ethnic enclave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Irish ethnicity, ethnic group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">up-and-coming </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">~ area or someone, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有前途的</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a new lease on life</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a new reason to feel happy to live, especially perhaps after you've had a difficult time in your life.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4773,10 +4933,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:C386"/>
+  <dimension ref="A3:C408"/>
   <sheetViews>
-    <sheetView topLeftCell="A356" workbookViewId="0">
-      <selection activeCell="B386" sqref="B386"/>
+    <sheetView tabSelected="1" topLeftCell="A381" workbookViewId="0">
+      <selection activeCell="B408" sqref="B408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7590,9 +7750,165 @@
         <v>807</v>
       </c>
     </row>
-    <row r="386" spans="1:1">
+    <row r="386" spans="1:3">
       <c r="A386">
         <v>1297</v>
+      </c>
+      <c r="B386" t="s">
+        <v>810</v>
+      </c>
+      <c r="C386" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
+      <c r="B387" t="s">
+        <v>812</v>
+      </c>
+      <c r="C387" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
+      <c r="B388" t="s">
+        <v>814</v>
+      </c>
+      <c r="C388" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
+      <c r="B389" t="s">
+        <v>816</v>
+      </c>
+      <c r="C389" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
+      <c r="B390" t="s">
+        <v>818</v>
+      </c>
+      <c r="C390" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
+      <c r="B391" t="s">
+        <v>820</v>
+      </c>
+      <c r="C391" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="B392" t="s">
+        <v>822</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="B393" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="B394" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="B395" t="s">
+        <v>825</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
+      <c r="B396" t="s">
+        <v>828</v>
+      </c>
+      <c r="C396" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="B397" t="s">
+        <v>830</v>
+      </c>
+      <c r="C397" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
+      <c r="B398" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="B399" t="s">
+        <v>833</v>
+      </c>
+      <c r="C399" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="B400" t="s">
+        <v>835</v>
+      </c>
+      <c r="C400" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3">
+      <c r="B401" t="s">
+        <v>837</v>
+      </c>
+      <c r="C401" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3">
+      <c r="B402" t="s">
+        <v>839</v>
+      </c>
+      <c r="C402" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3">
+      <c r="B403" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3">
+      <c r="B404" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3">
+      <c r="B405" t="s">
+        <v>843</v>
+      </c>
+      <c r="C405" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3">
+      <c r="B406" t="s">
+        <v>845</v>
+      </c>
+      <c r="C406" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3">
+      <c r="A408">
+        <v>1298</v>
       </c>
     </row>
   </sheetData>
@@ -7610,8 +7926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/english_note.xlsx
+++ b/english_note.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ESL" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="937">
   <si>
     <t>respond</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4116,10 +4116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0339</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>clerk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4541,6 +4537,369 @@
   </si>
   <si>
     <t>a new reason to feel happy to live, especially perhaps after you've had a difficult time in your life.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invention</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>come from the verb invent, which means to create or develop something that has never been made before.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refers to physical things, that you make with your hands or with a machine.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>claim credit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>say that you're responsible for something that was done and that therefore you should receive the praise or the recognition or the reward for it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coworker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a person you work with</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beat someone to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to do something before another person does, or to be the first group or first person to do a certain thing.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e.g. The Americans beat other countries to the moon.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>precursor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a person or thing that comes before sb/sth similar and that leads to or influences its development</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>something is disputed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>something that people do not agree on or something that is controversial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>document</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;v&gt;write it down or to do something that makes a permanent or visible record of it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If a tree falls in the forest and no one is around to hear it, does it make a sound?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rebut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>present an opposing view or opinion of something, to argue against something. Rebut one's argument</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">claim </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a "claim" is when you say something is true.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The proof is in the pudding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If something actually works, then that is the proof. The proof or the evidence that you are correct is that something works.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beside the point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it's not important, it's not related to the topic, it's irrelevant.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>concede</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to admit that something is true when earlier you said it wasn't true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>villa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a house where people stay on holiday/vacation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He keeps us gounded</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他让我们过着简朴的生活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>limo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豪华轿车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Don't make us look like jerks here.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别让我们失望。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If you have two stubborn burros that don't like each other, you tie them to the same cart.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果两头犟驴合不来，就把他们绑在同一辆车上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He's a total flake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他根本不值一提</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Let's just be ourselves</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a slightly toned-down version of ourselves</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稍微低调点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It’s appointmen viewing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提前预约才能看到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We're all over here taking turns blowing bubbles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们在这儿轮流吹泡泡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;v&gt; to cook food over a fire, especially outdoors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scoot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to go or leave somewhere in a hurry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tamp down my natural gifts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要压抑我的天赋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No slapping your own butt.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不准拍屁屁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Would I ever act on it?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我会趁机发展以下吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zinger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>够狠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Any chance I could get a break on this one?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这辆能打个折么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can throw in a bell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以送一个铃铛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You blew it. You made me look bad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你搞砸了，你让我很没面子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>driveway</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（从建筑物，住房，车库等通往大路的）私人车道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screwdriver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>螺丝刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I got a two-seater parked in the driveway</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我有辆跑车闲在车道上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Why are you trying to sneak around and hide things from me?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么你要鬼鬼祟祟还要背着我藏东西？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intellectual property</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识产权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The eye candy here can't leave the house without spending 20min in front of the mirror.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eye candy:花瓶角色；华而不实</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hold that thought</t>
+  </si>
+  <si>
+    <t>有那种想法；等一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sitting on a curb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curb:路边</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Someone can't drag himself away from a craps talbe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉浸赌博无法自拔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He was dying to see you</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他很想见你</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sometimes things work out just the way you want</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有时事情如你所愿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You gotta hang in that</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你要坚持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When all is said and done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当一切尘埃落定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Episode3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4548,7 +4907,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4596,6 +4955,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4617,7 +4983,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4639,6 +5005,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4933,10 +5304,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:C408"/>
+  <dimension ref="A3:C422"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A381" workbookViewId="0">
-      <selection activeCell="B408" sqref="B408"/>
+    <sheetView topLeftCell="A395" workbookViewId="0">
+      <selection activeCell="C415" sqref="C415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7485,177 +7856,177 @@
         <v>1295</v>
       </c>
       <c r="B348" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="B349" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="B350" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C350" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="B351" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C351" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="B352" t="s">
+        <v>749</v>
+      </c>
+      <c r="C352" t="s">
         <v>750</v>
-      </c>
-      <c r="C352" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="353" spans="2:3">
       <c r="B353" t="s">
+        <v>751</v>
+      </c>
+      <c r="C353" t="s">
         <v>752</v>
-      </c>
-      <c r="C353" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="354" spans="2:3">
       <c r="B354" t="s">
+        <v>753</v>
+      </c>
+      <c r="C354" t="s">
         <v>754</v>
-      </c>
-      <c r="C354" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="355" spans="2:3">
       <c r="B355" t="s">
+        <v>755</v>
+      </c>
+      <c r="C355" t="s">
         <v>756</v>
-      </c>
-      <c r="C355" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="356" spans="2:3">
       <c r="B356" t="s">
+        <v>757</v>
+      </c>
+      <c r="C356" t="s">
         <v>758</v>
-      </c>
-      <c r="C356" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="357" spans="2:3">
       <c r="B357" t="s">
+        <v>759</v>
+      </c>
+      <c r="C357" t="s">
         <v>760</v>
-      </c>
-      <c r="C357" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="358" spans="2:3">
       <c r="B358" t="s">
+        <v>761</v>
+      </c>
+      <c r="C358" t="s">
         <v>762</v>
-      </c>
-      <c r="C358" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="359" spans="2:3">
       <c r="B359" t="s">
+        <v>763</v>
+      </c>
+      <c r="C359" t="s">
         <v>764</v>
-      </c>
-      <c r="C359" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="360" spans="2:3">
       <c r="B360" t="s">
+        <v>765</v>
+      </c>
+      <c r="C360" t="s">
         <v>766</v>
-      </c>
-      <c r="C360" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="361" spans="2:3">
       <c r="B361" t="s">
+        <v>767</v>
+      </c>
+      <c r="C361" t="s">
         <v>768</v>
-      </c>
-      <c r="C361" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="362" spans="2:3">
       <c r="B362" t="s">
+        <v>769</v>
+      </c>
+      <c r="C362" t="s">
         <v>770</v>
-      </c>
-      <c r="C362" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="363" spans="2:3">
       <c r="B363" t="s">
+        <v>771</v>
+      </c>
+      <c r="C363" t="s">
         <v>772</v>
-      </c>
-      <c r="C363" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="364" spans="2:3">
       <c r="B364" t="s">
+        <v>773</v>
+      </c>
+      <c r="C364" t="s">
         <v>774</v>
-      </c>
-      <c r="C364" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="365" spans="2:3">
       <c r="B365" t="s">
+        <v>775</v>
+      </c>
+      <c r="C365" t="s">
         <v>776</v>
-      </c>
-      <c r="C365" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="366" spans="2:3">
       <c r="B366" t="s">
+        <v>777</v>
+      </c>
+      <c r="C366" t="s">
         <v>778</v>
-      </c>
-      <c r="C366" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="367" spans="2:3">
       <c r="B367" t="s">
+        <v>779</v>
+      </c>
+      <c r="C367" t="s">
         <v>780</v>
-      </c>
-      <c r="C367" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="368" spans="2:3">
       <c r="B368" t="s">
+        <v>781</v>
+      </c>
+      <c r="C368" t="s">
         <v>782</v>
-      </c>
-      <c r="C368" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="B369" t="s">
+        <v>783</v>
+      </c>
+      <c r="C369" t="s">
         <v>784</v>
-      </c>
-      <c r="C369" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="B370" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -7663,91 +8034,91 @@
         <v>1296</v>
       </c>
       <c r="B372" t="s">
+        <v>786</v>
+      </c>
+      <c r="C372" t="s">
         <v>787</v>
-      </c>
-      <c r="C372" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="B373" t="s">
+        <v>788</v>
+      </c>
+      <c r="C373" t="s">
         <v>789</v>
-      </c>
-      <c r="C373" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="B374" t="s">
+        <v>790</v>
+      </c>
+      <c r="C374" t="s">
         <v>791</v>
-      </c>
-      <c r="C374" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="B375" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="B376" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="377" spans="1:3">
       <c r="B377" t="s">
+        <v>792</v>
+      </c>
+      <c r="C377" t="s">
         <v>793</v>
-      </c>
-      <c r="C377" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="B378" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="B379" t="s">
+        <v>797</v>
+      </c>
+      <c r="C379" t="s">
         <v>798</v>
-      </c>
-      <c r="C379" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="B380" t="s">
+        <v>799</v>
+      </c>
+      <c r="C380" t="s">
         <v>800</v>
-      </c>
-      <c r="C380" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="381" spans="1:3">
       <c r="B381" t="s">
+        <v>801</v>
+      </c>
+      <c r="C381" t="s">
         <v>802</v>
-      </c>
-      <c r="C381" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="382" spans="1:3">
       <c r="B382" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="383" spans="1:3">
       <c r="B383" t="s">
+        <v>804</v>
+      </c>
+      <c r="C383" t="s">
         <v>805</v>
-      </c>
-      <c r="C383" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="B384" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -7755,166 +8126,277 @@
         <v>1297</v>
       </c>
       <c r="B386" t="s">
+        <v>809</v>
+      </c>
+      <c r="C386" t="s">
         <v>810</v>
-      </c>
-      <c r="C386" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="387" spans="1:3">
       <c r="B387" t="s">
+        <v>811</v>
+      </c>
+      <c r="C387" t="s">
         <v>812</v>
-      </c>
-      <c r="C387" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="B388" t="s">
+        <v>813</v>
+      </c>
+      <c r="C388" t="s">
         <v>814</v>
-      </c>
-      <c r="C388" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="B389" t="s">
+        <v>815</v>
+      </c>
+      <c r="C389" t="s">
         <v>816</v>
-      </c>
-      <c r="C389" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="B390" t="s">
+        <v>817</v>
+      </c>
+      <c r="C390" t="s">
         <v>818</v>
-      </c>
-      <c r="C390" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="B391" t="s">
+        <v>819</v>
+      </c>
+      <c r="C391" t="s">
         <v>820</v>
-      </c>
-      <c r="C391" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="B392" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="B393" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="B394" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="B395" t="s">
+        <v>824</v>
+      </c>
+      <c r="C395" s="1" t="s">
         <v>825</v>
-      </c>
-      <c r="C395" s="1" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="B396" t="s">
+        <v>827</v>
+      </c>
+      <c r="C396" t="s">
         <v>828</v>
-      </c>
-      <c r="C396" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="397" spans="1:3">
       <c r="B397" t="s">
+        <v>829</v>
+      </c>
+      <c r="C397" t="s">
         <v>830</v>
-      </c>
-      <c r="C397" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="398" spans="1:3">
       <c r="B398" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="B399" t="s">
+        <v>832</v>
+      </c>
+      <c r="C399" t="s">
         <v>833</v>
-      </c>
-      <c r="C399" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="B400" t="s">
+        <v>834</v>
+      </c>
+      <c r="C400" t="s">
         <v>835</v>
-      </c>
-      <c r="C400" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="401" spans="1:3">
       <c r="B401" t="s">
+        <v>836</v>
+      </c>
+      <c r="C401" t="s">
         <v>837</v>
-      </c>
-      <c r="C401" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="402" spans="1:3">
       <c r="B402" t="s">
+        <v>838</v>
+      </c>
+      <c r="C402" t="s">
         <v>839</v>
-      </c>
-      <c r="C402" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="403" spans="1:3">
       <c r="B403" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="404" spans="1:3">
       <c r="B404" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="405" spans="1:3">
       <c r="B405" t="s">
+        <v>842</v>
+      </c>
+      <c r="C405" t="s">
         <v>843</v>
-      </c>
-      <c r="C405" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="406" spans="1:3">
       <c r="B406" t="s">
+        <v>844</v>
+      </c>
+      <c r="C406" t="s">
         <v>845</v>
-      </c>
-      <c r="C406" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="408" spans="1:3">
       <c r="A408">
         <v>1298</v>
       </c>
+      <c r="B408" t="s">
+        <v>846</v>
+      </c>
+      <c r="C408" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3">
+      <c r="C409" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3">
+      <c r="B410" t="s">
+        <v>849</v>
+      </c>
+      <c r="C410" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3">
+      <c r="B411" t="s">
+        <v>851</v>
+      </c>
+      <c r="C411" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3">
+      <c r="B412" t="s">
+        <v>853</v>
+      </c>
+      <c r="C412" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3">
+      <c r="C413" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3">
+      <c r="B414" t="s">
+        <v>856</v>
+      </c>
+      <c r="C414" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3">
+      <c r="B415" t="s">
+        <v>858</v>
+      </c>
+      <c r="C415" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3">
+      <c r="B416" t="s">
+        <v>860</v>
+      </c>
+      <c r="C416" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="417" spans="2:3">
+      <c r="B417" s="11" t="s">
+        <v>862</v>
+      </c>
+      <c r="C417" s="11"/>
+    </row>
+    <row r="418" spans="2:3">
+      <c r="B418" t="s">
+        <v>863</v>
+      </c>
+      <c r="C418" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="419" spans="2:3">
+      <c r="B419" t="s">
+        <v>865</v>
+      </c>
+      <c r="C419" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="420" spans="2:3">
+      <c r="B420" t="s">
+        <v>867</v>
+      </c>
+      <c r="C420" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="421" spans="2:3">
+      <c r="B421" t="s">
+        <v>869</v>
+      </c>
+      <c r="C421" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="422" spans="2:3">
+      <c r="B422" t="s">
+        <v>871</v>
+      </c>
+      <c r="C422" t="s">
+        <v>872</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C179:C180"/>
     <mergeCell ref="C284:C285"/>
+    <mergeCell ref="B417:C417"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7924,15 +8406,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:C73"/>
+  <dimension ref="A2:C106"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="57.875" customWidth="1"/>
+    <col min="2" max="2" width="66.125" customWidth="1"/>
     <col min="3" max="3" width="88.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8312,10 +8794,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="B57" t="s">
+        <v>807</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>808</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -8437,7 +8919,260 @@
     </row>
     <row r="73" spans="2:3">
       <c r="B73" s="7" t="s">
-        <v>743</v>
+        <v>873</v>
+      </c>
+      <c r="C73" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3">
+      <c r="B74" t="s">
+        <v>875</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3">
+      <c r="B75" t="s">
+        <v>877</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3">
+      <c r="B76" t="s">
+        <v>879</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3">
+      <c r="B77" s="12" t="s">
+        <v>881</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3">
+      <c r="B78" t="s">
+        <v>883</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3">
+      <c r="B79" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3">
+      <c r="B80" t="s">
+        <v>886</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3">
+      <c r="B81" t="s">
+        <v>888</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3">
+      <c r="B82" t="s">
+        <v>890</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3">
+      <c r="B83" t="s">
+        <v>892</v>
+      </c>
+      <c r="C83" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3">
+      <c r="B84" t="s">
+        <v>894</v>
+      </c>
+      <c r="C84" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3">
+      <c r="B85" t="s">
+        <v>896</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3">
+      <c r="B86" t="s">
+        <v>898</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3">
+      <c r="B87" t="s">
+        <v>900</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3">
+      <c r="B88" t="s">
+        <v>902</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3">
+      <c r="B89" t="s">
+        <v>904</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3">
+      <c r="B90" t="s">
+        <v>906</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3">
+      <c r="B91" t="s">
+        <v>908</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3">
+      <c r="B92" t="s">
+        <v>910</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3">
+      <c r="B93" t="s">
+        <v>912</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3">
+      <c r="B94" t="s">
+        <v>914</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3">
+      <c r="B95" t="s">
+        <v>916</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3">
+      <c r="B96" t="s">
+        <v>918</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="B97" s="13" t="s">
+        <v>920</v>
+      </c>
+      <c r="C97" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="B98" t="s">
+        <v>922</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="B99" t="s">
+        <v>924</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="B100" t="s">
+        <v>926</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="B101" t="s">
+        <v>928</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="B102" t="s">
+        <v>930</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="B103" t="s">
+        <v>932</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="B104" t="s">
+        <v>934</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>936</v>
       </c>
     </row>
   </sheetData>

--- a/english_note.xlsx
+++ b/english_note.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
   </bookViews>
   <sheets>
     <sheet name="ESL" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="937">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="974">
   <si>
     <t>respond</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4900,6 +4900,174 @@
   </si>
   <si>
     <t>Episode3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weed wracker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freeway</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（美国）高速公路</t>
+  </si>
+  <si>
+    <t>an area of ground covered in short grass in a garden/yard or park, or used for playing a game on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lawn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lawn mower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a machine that is used to cut grass, especially at the end of a certain area of grass. It often been used in a unregular area.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a machine that is used to cut grass, and often used in a regular area.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">weed </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>in the singular is sometimes used informally to mean "marijuana"(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大麻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Look who's talking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This expression is used to say that another people who is criticizing you actually has the same problem or the same situation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comeback</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>something that you say right after another person insults you or says something bad about you.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>witty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>funny in an intelligent way, in a clever way</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>That would have been a nice comeback if it weren't so dumb.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过去完成虚拟语气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>one-liner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a joke that is only one, maybe two sentences long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to come up with</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mean to invent or to think of something, especially in a creative way.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>put-down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;n.&gt; (informal)a remark or criticism that is intended to make sb look or feel stupid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How humiliating for you</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感叹句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讽刺的；嘲讽的；挖苦的</t>
+  </si>
+  <si>
+    <t>sarcastic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>metal age</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>how old your mind is, which really means how intelligent you are.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>one-up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to one-up someone means to do something better than another person, usually right after that person does it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trading insults</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"trade" here means to exchange something. So I insult you and you insult me.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not to be a match</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your brain is no match for mine.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it's not as good as something else or someone else.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4996,6 +5164,8 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -5008,8 +5178,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5304,10 +5472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:C422"/>
+  <dimension ref="A3:C443"/>
   <sheetViews>
-    <sheetView topLeftCell="A395" workbookViewId="0">
-      <selection activeCell="C415" sqref="C415"/>
+    <sheetView tabSelected="1" topLeftCell="A418" workbookViewId="0">
+      <selection activeCell="A444" sqref="A444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6598,7 +6766,7 @@
       <c r="B179" t="s">
         <v>319</v>
       </c>
-      <c r="C179" s="8" t="s">
+      <c r="C179" s="10" t="s">
         <v>320</v>
       </c>
     </row>
@@ -6606,7 +6774,7 @@
       <c r="B180" t="s">
         <v>318</v>
       </c>
-      <c r="C180" s="8"/>
+      <c r="C180" s="10"/>
     </row>
     <row r="181" spans="1:3">
       <c r="B181" t="s">
@@ -7392,7 +7560,7 @@
       <c r="B284" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="C284" s="9" t="s">
+      <c r="C284" s="11" t="s">
         <v>510</v>
       </c>
     </row>
@@ -7400,7 +7568,7 @@
       <c r="B285" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="C285" s="10"/>
+      <c r="C285" s="12"/>
     </row>
     <row r="286" spans="1:3">
       <c r="B286" t="s">
@@ -8346,13 +8514,13 @@
         <v>861</v>
       </c>
     </row>
-    <row r="417" spans="2:3">
-      <c r="B417" s="11" t="s">
+    <row r="417" spans="1:3">
+      <c r="B417" s="13" t="s">
         <v>862</v>
       </c>
-      <c r="C417" s="11"/>
-    </row>
-    <row r="418" spans="2:3">
+      <c r="C417" s="13"/>
+    </row>
+    <row r="418" spans="1:3">
       <c r="B418" t="s">
         <v>863</v>
       </c>
@@ -8360,7 +8528,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="419" spans="2:3">
+    <row r="419" spans="1:3">
       <c r="B419" t="s">
         <v>865</v>
       </c>
@@ -8368,7 +8536,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="420" spans="2:3">
+    <row r="420" spans="1:3">
       <c r="B420" t="s">
         <v>867</v>
       </c>
@@ -8376,7 +8544,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="421" spans="2:3">
+    <row r="421" spans="1:3">
       <c r="B421" t="s">
         <v>869</v>
       </c>
@@ -8384,12 +8552,169 @@
         <v>870</v>
       </c>
     </row>
-    <row r="422" spans="2:3">
+    <row r="422" spans="1:3">
       <c r="B422" t="s">
         <v>871</v>
       </c>
       <c r="C422" t="s">
         <v>872</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3">
+      <c r="A424">
+        <v>1299</v>
+      </c>
+      <c r="B424" t="s">
+        <v>937</v>
+      </c>
+      <c r="C424" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3">
+      <c r="B425" t="s">
+        <v>942</v>
+      </c>
+      <c r="C425" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3">
+      <c r="B426" t="s">
+        <v>945</v>
+      </c>
+      <c r="C426" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3">
+      <c r="B427" t="s">
+        <v>938</v>
+      </c>
+      <c r="C427" s="6" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3">
+      <c r="B428" t="s">
+        <v>941</v>
+      </c>
+      <c r="C428" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3">
+      <c r="B429" t="s">
+        <v>947</v>
+      </c>
+      <c r="C429" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3">
+      <c r="B430" t="s">
+        <v>949</v>
+      </c>
+      <c r="C430" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3">
+      <c r="B431" t="s">
+        <v>951</v>
+      </c>
+      <c r="C431" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3">
+      <c r="B432" s="9" t="s">
+        <v>953</v>
+      </c>
+      <c r="C432" s="1" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3">
+      <c r="B433" t="s">
+        <v>955</v>
+      </c>
+      <c r="C433" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3">
+      <c r="B434" t="s">
+        <v>957</v>
+      </c>
+      <c r="C434" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3">
+      <c r="B435" t="s">
+        <v>959</v>
+      </c>
+      <c r="C435" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3">
+      <c r="B436" t="s">
+        <v>961</v>
+      </c>
+      <c r="C436" s="1" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3">
+      <c r="B437" t="s">
+        <v>964</v>
+      </c>
+      <c r="C437" s="6" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3">
+      <c r="B438" t="s">
+        <v>965</v>
+      </c>
+      <c r="C438" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3">
+      <c r="B439" t="s">
+        <v>967</v>
+      </c>
+      <c r="C439" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3">
+      <c r="B440" t="s">
+        <v>969</v>
+      </c>
+      <c r="C440" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3">
+      <c r="B441" t="s">
+        <v>971</v>
+      </c>
+      <c r="C441" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3">
+      <c r="C442" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3">
+      <c r="A443">
+        <v>1300</v>
       </c>
     </row>
   </sheetData>
@@ -8408,8 +8733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:C106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+    <sheetView topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8950,7 +9275,7 @@
       </c>
     </row>
     <row r="77" spans="2:3">
-      <c r="B77" s="12" t="s">
+      <c r="B77" s="8" t="s">
         <v>881</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -9107,7 +9432,7 @@
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="B97" s="13" t="s">
+      <c r="B97" s="9" t="s">
         <v>920</v>
       </c>
       <c r="C97" t="s">

--- a/english_note.xlsx
+++ b/english_note.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ESL" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="974">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="1031">
   <si>
     <t>respond</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5068,6 +5068,234 @@
   </si>
   <si>
     <t>it's not as good as something else or someone else.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not new or not interesting or outdated or old</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diversify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to have more variety, more variations--diferent kind of people</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>homogenous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>something being all the same</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bilingual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>someone who can speak two language&lt;adj&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multicultural</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefix "multi" means many</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>demographic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a certain group within the larger population</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tackle problem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deal with/solve the difficult situations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stodgy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>similar with stale, old or boring or old-fashion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">to be adverse to something </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>means not wanting to or being interested in doing something</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>discrimination</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not treating people equally, not doing the same thing for one group that you would do for another in a way that would generally be considered illegal or against the law</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lawsuit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Usually a lawsuit is over money.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">run into </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>someone runs into your car with his car.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>take out the garbage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倒垃圾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You're just in time to catch the end of the game</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你刚好赶上看比赛结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I was just being facetious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我刚刚只是开玩笑。Facetious:(尤指在不合适的时候)开玩笑的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>airfoil, drag, lift, thrust</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>principles of aerodynamics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航空动力学的基本原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>螺旋桨，拉力，浮力，推力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排印错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diaper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尿布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx is a snob</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx是个势利小人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm discerning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我有见识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offical slogan for snobs.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>势利小人常用的借口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I was a hick from the farm in Missouri</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是个从密苏里来的乡巴佬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He's a little jumpy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他有点坐不住&lt;adj&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You still walk on eggshells around him</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你在他身边还是畏畏缩缩放不开。Walk on eggshells--谨慎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You want to just hang out?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你只是想出去逛逛？Hang out--闲逛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's non-negotiable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没的商量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You're making me feel uneasy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你这样弄我很不自在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0600</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5472,10 +5700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:C443"/>
+  <dimension ref="A3:C455"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A418" workbookViewId="0">
-      <selection activeCell="A444" sqref="A444"/>
+    <sheetView topLeftCell="A431" workbookViewId="0">
+      <selection activeCell="B456" sqref="B456"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8712,9 +8940,103 @@
         <v>972</v>
       </c>
     </row>
-    <row r="443" spans="1:3">
-      <c r="A443">
+    <row r="444" spans="1:3">
+      <c r="A444">
         <v>1300</v>
+      </c>
+      <c r="B444" t="s">
+        <v>974</v>
+      </c>
+      <c r="C444" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3">
+      <c r="B445" t="s">
+        <v>976</v>
+      </c>
+      <c r="C445" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3">
+      <c r="B446" t="s">
+        <v>978</v>
+      </c>
+      <c r="C446" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3">
+      <c r="B447" t="s">
+        <v>980</v>
+      </c>
+      <c r="C447" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3">
+      <c r="B448" t="s">
+        <v>982</v>
+      </c>
+      <c r="C448" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="449" spans="2:3">
+      <c r="B449" t="s">
+        <v>984</v>
+      </c>
+      <c r="C449" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="450" spans="2:3">
+      <c r="B450" t="s">
+        <v>986</v>
+      </c>
+      <c r="C450" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="451" spans="2:3">
+      <c r="B451" t="s">
+        <v>988</v>
+      </c>
+      <c r="C451" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="452" spans="2:3">
+      <c r="B452" t="s">
+        <v>990</v>
+      </c>
+      <c r="C452" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="453" spans="2:3">
+      <c r="B453" t="s">
+        <v>992</v>
+      </c>
+      <c r="C453" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="454" spans="2:3">
+      <c r="B454" t="s">
+        <v>994</v>
+      </c>
+      <c r="C454" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="455" spans="2:3">
+      <c r="B455" t="s">
+        <v>996</v>
+      </c>
+      <c r="C455" t="s">
+        <v>997</v>
       </c>
     </row>
   </sheetData>
@@ -8731,10 +9053,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:C106"/>
+  <dimension ref="A2:C122"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="B106" sqref="B106"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9498,6 +9820,137 @@
     <row r="106" spans="1:3">
       <c r="A106" t="s">
         <v>936</v>
+      </c>
+      <c r="B106" t="s">
+        <v>998</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="B107" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="B108" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="B109" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="B110" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="B111" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="B112" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3">
+      <c r="B113" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3">
+      <c r="B114" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3">
+      <c r="B115" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3">
+      <c r="B116" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3">
+      <c r="B117" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3">
+      <c r="B118" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3">
+      <c r="B119" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3">
+      <c r="B120" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3">
+      <c r="B121" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3">
+      <c r="B122" s="7" t="s">
+        <v>1030</v>
       </c>
     </row>
   </sheetData>

--- a/english_note.xlsx
+++ b/english_note.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
   </bookViews>
   <sheets>
     <sheet name="ESL" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="1031">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="1070">
   <si>
     <t>respond</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5296,6 +5296,203 @@
   </si>
   <si>
     <t>0600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>puny</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recruit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to get someone participate in an organization, a company, or a sport team--recruit someone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>small and weak -- puniest, the superlative form, to describe a person or an animal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>humungous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extremely large, a person who's very tall and perhaps muscular or strong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>My players are the best around</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the best anywhere</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>They're massive in size and massive in talent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>massive--something that is very large, very big, perhaps also very heavy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crush</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to destroy or to ruin something</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teeny-tiny</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>very small</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">sweat </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the water or the liquid that comes out of your body when you are very hot, perhaps because you are working a lot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to break a sweat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to start sweating because you are working a lot, you are working hard.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gigantic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>very large, huge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同义：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>humungous, massive, gigantic, huge</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Something doesn't smell right</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>something is suspicious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It all comes down to recruitment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sth comes down to sth else, means it is a simple explanation, or the main reason sth is true is because of this or that</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E.G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Doing well at school comes down to studying hard</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Are you sure you don't have a few ringers on your team?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ringer:an athlete, someone who plays a sport, who is not eligible or shouldn't actually be on that team, because the player is too old to be on the team</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amateur sport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业余比赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If the best players gravitated toward my team and to my better coaching</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gravitate toward sth means to be interested in and want to have sth to do with</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ready to be schooled?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to be taught a lesson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pep talk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>when you talk to your team to try to get them more excited about playing, to motivate them</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pep rally</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A few of them look like they're ready to bolt or throw up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bolt:run away quickly and suddenly    throw up:vomit, for the contents or what's inside of your stomach to come out through your mouth</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5303,7 +5500,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5358,6 +5555,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -5379,7 +5583,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5406,6 +5610,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5700,10 +5905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:C455"/>
+  <dimension ref="A3:C479"/>
   <sheetViews>
-    <sheetView topLeftCell="A431" workbookViewId="0">
-      <selection activeCell="B456" sqref="B456"/>
+    <sheetView tabSelected="1" topLeftCell="A455" workbookViewId="0">
+      <selection activeCell="B481" sqref="B481"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8983,7 +9188,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="449" spans="2:3">
+    <row r="449" spans="1:3">
       <c r="B449" t="s">
         <v>984</v>
       </c>
@@ -8991,7 +9196,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="450" spans="2:3">
+    <row r="450" spans="1:3">
       <c r="B450" t="s">
         <v>986</v>
       </c>
@@ -8999,7 +9204,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="451" spans="2:3">
+    <row r="451" spans="1:3">
       <c r="B451" t="s">
         <v>988</v>
       </c>
@@ -9007,7 +9212,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="452" spans="2:3">
+    <row r="452" spans="1:3">
       <c r="B452" t="s">
         <v>990</v>
       </c>
@@ -9015,15 +9220,15 @@
         <v>991</v>
       </c>
     </row>
-    <row r="453" spans="2:3">
+    <row r="453" spans="1:3">
       <c r="B453" t="s">
         <v>992</v>
       </c>
-      <c r="C453" t="s">
+      <c r="C453" s="9" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="454" spans="2:3">
+    <row r="454" spans="1:3">
       <c r="B454" t="s">
         <v>994</v>
       </c>
@@ -9031,12 +9236,179 @@
         <v>995</v>
       </c>
     </row>
-    <row r="455" spans="2:3">
+    <row r="455" spans="1:3">
       <c r="B455" t="s">
         <v>996</v>
       </c>
       <c r="C455" t="s">
         <v>997</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3">
+      <c r="A457">
+        <v>1301</v>
+      </c>
+      <c r="B457" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C457" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3">
+      <c r="B458" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C458" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3">
+      <c r="B459" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C459" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3">
+      <c r="B460" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C460" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3">
+      <c r="B461" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C461" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3">
+      <c r="B462" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C462" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3">
+      <c r="B463" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C463" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3">
+      <c r="B464" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C464" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3">
+      <c r="B465" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C465" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3">
+      <c r="B466" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C466" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3">
+      <c r="C467" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3">
+      <c r="B468" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C468" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3">
+      <c r="B469" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C469" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3">
+      <c r="C470" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3">
+      <c r="B471" s="9" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C471" s="9" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3">
+      <c r="B472" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C472" s="1" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3">
+      <c r="B473" s="14" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C473" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3">
+      <c r="B474" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C474" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3">
+      <c r="B475" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C475" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3">
+      <c r="B476" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3">
+      <c r="B477" s="9" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C477" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3">
+      <c r="A479">
+        <v>1302</v>
       </c>
     </row>
   </sheetData>
@@ -9055,8 +9427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:C122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B123" sqref="B123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/english_note.xlsx
+++ b/english_note.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="1070">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="1100">
   <si>
     <t>respond</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5493,6 +5493,192 @@
   </si>
   <si>
     <t>bolt:run away quickly and suddenly    throw up:vomit, for the contents or what's inside of your stomach to come out through your mouth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clueless</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not to understand your world around you, not to be aware of what is happening.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Someone who is not very intelligent, not very smart, or who isn't pay attention could be described as clueless</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I have to be home by 11p.m. because of my curfew</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>by+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不迟于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(not later than);curfew: a time, usually in the evening, before which you have to be home.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to be protective of someone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to try to take care of someone, to make sure that a person isn't hurt in any way</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overprotective</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefix "over" means too much of something</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get on someone's case</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bother someone by telling him all the things he's doing wrong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nag someone to do sth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to reminder someone all the time about something he is supposed to do.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>do the dishes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wash the plates, bowl, or chopsticks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>complain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show that you are unhappy about sth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">pick out </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select, or choose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contrast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>to show how two things are different.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>比不同</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>show how two different things are similar, or how they are different</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>比相似，口语中弱化，主要指不同</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>come up short</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to disappoint, not to be as good as someone expects you to be.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>also means to get fewer points than you need to win a game.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>satisfy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>similar as content; opposite: disappoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>marks at school</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5598,6 +5784,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -5610,7 +5797,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5905,10 +6091,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:C479"/>
+  <dimension ref="A3:C496"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A455" workbookViewId="0">
-      <selection activeCell="B481" sqref="B481"/>
+    <sheetView tabSelected="1" topLeftCell="A478" workbookViewId="0">
+      <selection activeCell="B496" sqref="B496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7199,7 +7385,7 @@
       <c r="B179" t="s">
         <v>319</v>
       </c>
-      <c r="C179" s="10" t="s">
+      <c r="C179" s="11" t="s">
         <v>320</v>
       </c>
     </row>
@@ -7207,7 +7393,7 @@
       <c r="B180" t="s">
         <v>318</v>
       </c>
-      <c r="C180" s="10"/>
+      <c r="C180" s="11"/>
     </row>
     <row r="181" spans="1:3">
       <c r="B181" t="s">
@@ -7993,7 +8179,7 @@
       <c r="B284" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="C284" s="11" t="s">
+      <c r="C284" s="12" t="s">
         <v>510</v>
       </c>
     </row>
@@ -8001,7 +8187,7 @@
       <c r="B285" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="C285" s="12"/>
+      <c r="C285" s="13"/>
     </row>
     <row r="286" spans="1:3">
       <c r="B286" t="s">
@@ -8948,10 +9134,10 @@
       </c>
     </row>
     <row r="417" spans="1:3">
-      <c r="B417" s="13" t="s">
+      <c r="B417" s="14" t="s">
         <v>862</v>
       </c>
-      <c r="C417" s="13"/>
+      <c r="C417" s="14"/>
     </row>
     <row r="418" spans="1:3">
       <c r="B418" t="s">
@@ -9370,7 +9556,7 @@
       </c>
     </row>
     <row r="473" spans="1:3">
-      <c r="B473" s="14" t="s">
+      <c r="B473" s="10" t="s">
         <v>1061</v>
       </c>
       <c r="C473" t="s">
@@ -9409,6 +9595,131 @@
     <row r="479" spans="1:3">
       <c r="A479">
         <v>1302</v>
+      </c>
+      <c r="B479" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C479" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3">
+      <c r="C480" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3">
+      <c r="B481" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C481" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3">
+      <c r="B482" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C482" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3">
+      <c r="B483" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C483" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3">
+      <c r="B484" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C484" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3">
+      <c r="B485" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C485" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3">
+      <c r="B486" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C486" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3">
+      <c r="B487" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C487" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3">
+      <c r="B488" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C488" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3">
+      <c r="B489" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C489" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3">
+      <c r="B490" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C490" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3">
+      <c r="B491" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C491" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3">
+      <c r="C492" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3">
+      <c r="B493" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C493" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3">
+      <c r="B494" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C494" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3">
+      <c r="A496">
+        <v>1303</v>
       </c>
     </row>
   </sheetData>

--- a/english_note.xlsx
+++ b/english_note.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="1100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="1119">
   <si>
     <t>respond</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5679,6 +5679,94 @@
   </si>
   <si>
     <t>marks at school</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">one thousand three hundred and three; thirdteen hundred three; </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How may I help you today?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm calling to dispute my bill.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>past due</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dispute sth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disagree about sth, espeically when you think there is something wrong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It has not been paid on time and still needs to be paid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>over due</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>same as "past due"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tell some in a formal way</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort out sth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fix the problem, to take care of this situation, to find out a solution to the problem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>also means to take a group of things and put them in different categories</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usage plan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">an agreement you have with your phone company. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>套餐</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overage charges</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>you've used too much, you've gone over your limit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There's no disputing the fact that…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5769,7 +5857,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5785,6 +5873,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -6091,10 +6182,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:C496"/>
+  <dimension ref="A3:C510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A478" workbookViewId="0">
-      <selection activeCell="B496" sqref="B496"/>
+    <sheetView tabSelected="1" topLeftCell="A487" workbookViewId="0">
+      <selection activeCell="B510" sqref="B510"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7385,7 +7476,7 @@
       <c r="B179" t="s">
         <v>319</v>
       </c>
-      <c r="C179" s="11" t="s">
+      <c r="C179" s="12" t="s">
         <v>320</v>
       </c>
     </row>
@@ -7393,7 +7484,7 @@
       <c r="B180" t="s">
         <v>318</v>
       </c>
-      <c r="C180" s="11"/>
+      <c r="C180" s="12"/>
     </row>
     <row r="181" spans="1:3">
       <c r="B181" t="s">
@@ -8179,7 +8270,7 @@
       <c r="B284" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="C284" s="12" t="s">
+      <c r="C284" s="13" t="s">
         <v>510</v>
       </c>
     </row>
@@ -8187,7 +8278,7 @@
       <c r="B285" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="C285" s="13"/>
+      <c r="C285" s="14"/>
     </row>
     <row r="286" spans="1:3">
       <c r="B286" t="s">
@@ -9134,10 +9225,10 @@
       </c>
     </row>
     <row r="417" spans="1:3">
-      <c r="B417" s="14" t="s">
+      <c r="B417" s="15" t="s">
         <v>862</v>
       </c>
-      <c r="C417" s="14"/>
+      <c r="C417" s="15"/>
     </row>
     <row r="418" spans="1:3">
       <c r="B418" t="s">
@@ -9720,6 +9811,98 @@
     <row r="496" spans="1:3">
       <c r="A496">
         <v>1303</v>
+      </c>
+      <c r="B496" s="11">
+        <v>1303</v>
+      </c>
+      <c r="C496" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3">
+      <c r="B497" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3">
+      <c r="B498" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3">
+      <c r="B499" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3">
+      <c r="B500" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C500" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3">
+      <c r="B501" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C501" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3">
+      <c r="B502" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C502" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3">
+      <c r="B503" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C503" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3">
+      <c r="B504" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C504" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3">
+      <c r="C505" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3">
+      <c r="B506" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C506" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3">
+      <c r="B507" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C507" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3">
+      <c r="B508" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3">
+      <c r="A510">
+        <v>1304</v>
       </c>
     </row>
   </sheetData>

--- a/english_note.xlsx
+++ b/english_note.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="1119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="1142">
   <si>
     <t>respond</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5767,6 +5767,110 @@
   </si>
   <si>
     <t>There's no disputing the fact that…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I would like to begin by expressing my gratitude to all the people who have helped me along the way.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impersonal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>along the way</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>over a period of time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stiff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not relaxed, not normal, sth that you say is not appropriate for the situation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What comes next?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wholeheartedly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>completely or entirely</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stick with someone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>support someone or to stay with someone, to be loyal to someone even when times are difficult, even when situation is difficult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not referring to any particular person; distant, without feelings of warmth or closeness, or simply not being emotional enough</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">fab </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>short for fabulous, same as awesome, fantastic, great, wonderfull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thoughtfulness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refer to someone who always thinking about another person, always considering that person</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>from the bottom of her heart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sappy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>too much emotion, so much emotion that it seems exaggerated and perhaps insincere, not meaningful</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>give props to someone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;informal&gt;recognize someone who has helped you, to recognize someone who has done something good, perhaps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>give a shout-out to people who have helped</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>shout-out:&lt;informal&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公开表达致意</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6182,10 +6286,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:C510"/>
+  <dimension ref="A3:C524"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A487" workbookViewId="0">
-      <selection activeCell="B510" sqref="B510"/>
+    <sheetView tabSelected="1" topLeftCell="A506" workbookViewId="0">
+      <selection activeCell="B524" sqref="B524"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9904,12 +10008,112 @@
       <c r="A510">
         <v>1304</v>
       </c>
+      <c r="B510" s="15" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C510" s="15"/>
+    </row>
+    <row r="511" spans="1:3">
+      <c r="B511" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C511" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3">
+      <c r="B512" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C512" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3">
+      <c r="B513" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C513" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3">
+      <c r="B514" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3">
+      <c r="B515" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C515" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3">
+      <c r="B516" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C516" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3">
+      <c r="B517" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C517" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3">
+      <c r="B518" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C518" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3">
+      <c r="B519" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3">
+      <c r="B520" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C520" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3">
+      <c r="B521" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C521" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3">
+      <c r="B522" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C522" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3">
+      <c r="A524">
+        <v>1305</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="C179:C180"/>
     <mergeCell ref="C284:C285"/>
     <mergeCell ref="B417:C417"/>
+    <mergeCell ref="B510:C510"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/english_note.xlsx
+++ b/english_note.xlsx
@@ -7,16 +7,17 @@
     <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
   </bookViews>
   <sheets>
-    <sheet name="ESL" sheetId="1" r:id="rId1"/>
-    <sheet name="Modern Family" sheetId="3" r:id="rId2"/>
-    <sheet name="The Sun Also Rise" sheetId="2" r:id="rId3"/>
+    <sheet name="ESL2016" sheetId="4" r:id="rId1"/>
+    <sheet name="ESL2017" sheetId="1" r:id="rId2"/>
+    <sheet name="Modern Family" sheetId="3" r:id="rId3"/>
+    <sheet name="The Sun Also Rise" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="1142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="1176">
   <si>
     <t>respond</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5871,6 +5872,142 @@
       </rPr>
       <t>公开表达致意</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I guess you could say in formal or informal setting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>note:setting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>one way of saying goodbye</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm outta here</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a way of saying "I'm leaving here quickly", usually because I no longer want to be here</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm leaving on a jet plane</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In 10 minutes I'll be late for the door</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parting is such sweet sorrow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a well-known or famous line, spoken by one of the actors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's better to have loved and lost than never to have loved at all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a famous line, a famous sentence from a poem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a fond farewell and optimism for the future</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fond farewell: a sweet, kind, emotional goodbye</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tomorrow is the first day of the rest of my life</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm off to bigger and better things!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm off to do sth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm blowing this pop stand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blow this pop stand: leaving a place</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a small store, often outside, where you sell things from</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>popsicle stand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>popsicle: a frozen dessert, basically sugar water that has been frozen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sincere</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>express your true emotions, your true feelings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>May the force be with you</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a well-known line from the Star Wars</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Live long and prosper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's been a blast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blast: a great time, a lot of fun, a lot of excitement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">It's been a hoot </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Toodle loo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a funy way of saying goodbyd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hoot: sth that is fun, enjoyable, entertaining. This is a old-fasion expression</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5961,7 +6098,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5977,6 +6114,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -6286,10 +6426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:C524"/>
+  <dimension ref="A2:C530"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A506" workbookViewId="0">
-      <selection activeCell="B524" sqref="B524"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6299,3814 +6439,189 @@
     <col min="3" max="3" width="118.375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:3">
+      <c r="B2" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>1274</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="B19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
-        <v>1275</v>
-      </c>
-      <c r="B21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="B22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="B23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="B24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="B25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="B26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="B27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="B28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="B29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="B30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="B31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="B32" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="B33" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="B34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="B35" t="s">
-        <v>73</v>
-      </c>
-      <c r="C35" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="B36" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38">
-        <v>1276</v>
-      </c>
-      <c r="B38" t="s">
-        <v>81</v>
-      </c>
-      <c r="C38" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="B39" t="s">
-        <v>82</v>
-      </c>
-      <c r="C39" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="B40" t="s">
-        <v>83</v>
-      </c>
-      <c r="C40" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="B41" t="s">
-        <v>85</v>
-      </c>
-      <c r="C41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="B42" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="B43" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="B44" t="s">
-        <v>92</v>
-      </c>
-      <c r="C44" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="B45" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="B46" t="s">
-        <v>95</v>
-      </c>
-      <c r="C46" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="B47" t="s">
-        <v>97</v>
-      </c>
-      <c r="C47" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="B48" t="s">
-        <v>98</v>
-      </c>
-      <c r="C48" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="B49" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="B50" t="s">
-        <v>102</v>
-      </c>
-      <c r="C50" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="B51" t="s">
-        <v>103</v>
-      </c>
-      <c r="C51" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53">
-        <v>1277</v>
-      </c>
-      <c r="B53" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="B54" t="s">
-        <v>107</v>
-      </c>
-      <c r="C54" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="B55" t="s">
-        <v>108</v>
-      </c>
-      <c r="C55" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="B56" t="s">
-        <v>109</v>
-      </c>
-      <c r="C56" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="B57" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="B58" t="s">
-        <v>111</v>
-      </c>
-      <c r="C58" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="B59" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="B60" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="B61" t="s">
-        <v>116</v>
-      </c>
-      <c r="C61" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="B62" t="s">
-        <v>118</v>
-      </c>
-      <c r="C62" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="B63" t="s">
-        <v>120</v>
-      </c>
-      <c r="C63" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="B64" t="s">
-        <v>122</v>
-      </c>
-      <c r="C64" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="B65" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="B66" t="s">
-        <v>125</v>
-      </c>
-      <c r="C66" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68">
-        <v>1278</v>
-      </c>
-      <c r="B68" t="s">
-        <v>127</v>
-      </c>
-      <c r="C68" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="B69" t="s">
-        <v>128</v>
-      </c>
-      <c r="C69" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="B70" t="s">
-        <v>130</v>
-      </c>
-      <c r="C70" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="B71" t="s">
-        <v>132</v>
-      </c>
-      <c r="C71" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="B72" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="B73" t="s">
-        <v>136</v>
-      </c>
-      <c r="C73" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="B74" t="s">
-        <v>138</v>
-      </c>
-      <c r="C74" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="B75" t="s">
-        <v>140</v>
-      </c>
-      <c r="C75" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="B76" t="s">
-        <v>142</v>
-      </c>
-      <c r="C76" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="B77" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="B78" t="s">
-        <v>145</v>
-      </c>
-      <c r="C78" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="B79" t="s">
-        <v>147</v>
-      </c>
-      <c r="C79" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="B80" t="s">
-        <v>150</v>
-      </c>
-      <c r="C80" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="B81" t="s">
-        <v>149</v>
-      </c>
-      <c r="C81" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="B82" t="s">
-        <v>152</v>
-      </c>
-      <c r="C82" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="B83" t="s">
-        <v>155</v>
-      </c>
-      <c r="C83" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="B84" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="B85" t="s">
-        <v>157</v>
-      </c>
-      <c r="C85" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="B86" t="s">
-        <v>159</v>
-      </c>
-      <c r="C86" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88">
-        <v>1279</v>
-      </c>
-      <c r="B88" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="B89" t="s">
-        <v>163</v>
-      </c>
-      <c r="C89" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="B90" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="B91" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="B92" t="s">
-        <v>165</v>
-      </c>
-      <c r="C92" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="B93" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="B94" t="s">
-        <v>168</v>
-      </c>
-      <c r="C94" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="B95" t="s">
-        <v>169</v>
-      </c>
-      <c r="C95" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="B96" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="B97" t="s">
-        <v>172</v>
-      </c>
-      <c r="C97" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="B98" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="B99" t="s">
-        <v>174</v>
-      </c>
-      <c r="C99" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="B100" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="B101" t="s">
-        <v>177</v>
-      </c>
-      <c r="C101" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="B102" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="B103" t="s">
-        <v>181</v>
-      </c>
-      <c r="C103" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="B104" t="s">
-        <v>183</v>
-      </c>
-      <c r="C104" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="B105" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="B106" t="s">
-        <v>187</v>
-      </c>
-      <c r="C106" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="B107" t="s">
-        <v>189</v>
-      </c>
-      <c r="C107" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="B108" t="s">
-        <v>191</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="B109" t="s">
-        <v>192</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111">
-        <v>1280</v>
-      </c>
-      <c r="B111" t="s">
-        <v>195</v>
-      </c>
-      <c r="C111" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="B112" t="s">
-        <v>196</v>
-      </c>
-      <c r="C112" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="B113" t="s">
-        <v>197</v>
-      </c>
-      <c r="C113" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="B114" t="s">
-        <v>199</v>
-      </c>
-      <c r="C114" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="B115" t="s">
-        <v>201</v>
-      </c>
-      <c r="C115" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="B116" t="s">
-        <v>203</v>
-      </c>
-      <c r="C116" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="B117" t="s">
-        <v>205</v>
-      </c>
-      <c r="C117" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="B118" t="s">
-        <v>208</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="B119" t="s">
-        <v>209</v>
-      </c>
-      <c r="C119" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="B120" t="s">
-        <v>211</v>
-      </c>
-      <c r="C120" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="B121" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="B122" t="s">
-        <v>214</v>
-      </c>
-      <c r="C122" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="B123" t="s">
-        <v>216</v>
-      </c>
-      <c r="C123" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="B124" t="s">
-        <v>218</v>
-      </c>
-      <c r="C124" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="B125" t="s">
-        <v>220</v>
-      </c>
-      <c r="C125" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="B126" t="s">
-        <v>222</v>
-      </c>
-      <c r="C126" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128">
-        <v>1281</v>
-      </c>
-      <c r="B128" t="s">
-        <v>225</v>
-      </c>
-      <c r="C128" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="B129" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="B130" t="s">
-        <v>227</v>
-      </c>
-      <c r="C130" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="B131" t="s">
-        <v>228</v>
-      </c>
-      <c r="C131" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="B132" t="s">
-        <v>229</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="B133" t="s">
-        <v>230</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="B134" t="s">
-        <v>231</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="B135" t="s">
-        <v>246</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="B136" t="s">
-        <v>232</v>
-      </c>
-      <c r="C136" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="B137" t="s">
-        <v>234</v>
-      </c>
-      <c r="C137" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="B138" t="s">
-        <v>238</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="B139" t="s">
-        <v>243</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="B140" t="s">
-        <v>247</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="B141" t="s">
-        <v>249</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="A143">
-        <v>1282</v>
-      </c>
-      <c r="C143" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="C144" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="B145" t="s">
-        <v>253</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="B146" t="s">
-        <v>254</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
-      <c r="B147" t="s">
-        <v>256</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="B148" t="s">
-        <v>258</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="B149" t="s">
-        <v>261</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="B150" t="s">
-        <v>263</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="B151" t="s">
-        <v>265</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="B152" t="s">
-        <v>267</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="B153" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="B154" t="s">
-        <v>270</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
-      <c r="B155" t="s">
-        <v>272</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
-      <c r="A157">
-        <v>1283</v>
-      </c>
-      <c r="B157" t="s">
-        <v>274</v>
-      </c>
-      <c r="C157" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
-      <c r="B158" t="s">
-        <v>275</v>
-      </c>
-      <c r="C158" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
-      <c r="B159" t="s">
-        <v>278</v>
-      </c>
-      <c r="C159" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
-      <c r="B160" t="s">
-        <v>280</v>
-      </c>
-      <c r="C160" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
-      <c r="B161" t="s">
-        <v>282</v>
-      </c>
-      <c r="C161" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
-      <c r="B162" t="s">
-        <v>284</v>
-      </c>
-      <c r="C162" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
-      <c r="B163" t="s">
-        <v>286</v>
-      </c>
-      <c r="C163" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
-      <c r="B164" t="s">
-        <v>288</v>
-      </c>
-      <c r="C164" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
-      <c r="B165" t="s">
-        <v>289</v>
-      </c>
-      <c r="C165" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
-      <c r="B166" t="s">
-        <v>292</v>
-      </c>
-      <c r="C166" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
-      <c r="B167" t="s">
-        <v>294</v>
-      </c>
-      <c r="C167" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
-      <c r="B168" t="s">
-        <v>296</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
-      <c r="B169" t="s">
-        <v>298</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
-      <c r="B170" t="s">
-        <v>301</v>
-      </c>
-      <c r="C170" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
-      <c r="B171" t="s">
-        <v>302</v>
-      </c>
-      <c r="C171" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
-      <c r="A173">
-        <v>1284</v>
-      </c>
-      <c r="B173" t="s">
-        <v>306</v>
-      </c>
-      <c r="C173" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
-      <c r="B174" t="s">
-        <v>308</v>
-      </c>
-      <c r="C174" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
-      <c r="B175" t="s">
-        <v>310</v>
-      </c>
-      <c r="C175" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
-      <c r="B176" t="s">
-        <v>312</v>
-      </c>
-      <c r="C176" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
-      <c r="B177" t="s">
-        <v>314</v>
-      </c>
-      <c r="C177" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
-      <c r="B178" t="s">
-        <v>316</v>
-      </c>
-      <c r="C178" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
-      <c r="B179" t="s">
-        <v>319</v>
-      </c>
-      <c r="C179" s="12" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
-      <c r="B180" t="s">
-        <v>318</v>
-      </c>
-      <c r="C180" s="12"/>
-    </row>
-    <row r="181" spans="1:3">
-      <c r="B181" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
-      <c r="B182" t="s">
-        <v>322</v>
-      </c>
-      <c r="C182" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
-      <c r="B183" t="s">
-        <v>324</v>
-      </c>
-      <c r="C183" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
-      <c r="B184" t="s">
-        <v>326</v>
-      </c>
-      <c r="C184" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
-      <c r="B185" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
-      <c r="B186" t="s">
-        <v>329</v>
-      </c>
-      <c r="C186" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
-      <c r="A188">
-        <v>1285</v>
-      </c>
-      <c r="B188" t="s">
-        <v>331</v>
-      </c>
-      <c r="C188" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
-      <c r="B189" t="s">
-        <v>332</v>
-      </c>
-      <c r="C189" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
-      <c r="B190" t="s">
-        <v>334</v>
-      </c>
-      <c r="C190" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
-      <c r="B191" t="s">
-        <v>336</v>
-      </c>
-      <c r="C191" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
-      <c r="B192" t="s">
-        <v>338</v>
-      </c>
-      <c r="C192" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" ht="84.75" customHeight="1">
-      <c r="B193" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="C193" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
-      <c r="B194" t="s">
-        <v>342</v>
-      </c>
-      <c r="C194" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
-      <c r="B195" t="s">
-        <v>344</v>
-      </c>
-      <c r="C195" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
-      <c r="B196" t="s">
-        <v>346</v>
-      </c>
-      <c r="C196" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
-      <c r="B197" t="s">
-        <v>348</v>
-      </c>
-      <c r="C197" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
-      <c r="B198" t="s">
-        <v>351</v>
-      </c>
-      <c r="C198" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
-      <c r="B199" t="s">
-        <v>353</v>
-      </c>
-      <c r="C199" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
-      <c r="B200" t="s">
-        <v>355</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
-      <c r="B201" t="s">
-        <v>357</v>
-      </c>
-      <c r="C201" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
-      <c r="B202" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3">
-      <c r="B203" t="s">
-        <v>360</v>
-      </c>
-      <c r="C203" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
-      <c r="B204" t="s">
-        <v>362</v>
-      </c>
-      <c r="C204" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
-      <c r="A206">
-        <v>1286</v>
-      </c>
-      <c r="B206" t="s">
-        <v>364</v>
-      </c>
-      <c r="C206" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
-      <c r="B207" t="s">
-        <v>365</v>
-      </c>
-      <c r="C207" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3">
-      <c r="B208" t="s">
-        <v>367</v>
-      </c>
-      <c r="C208" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
-      <c r="B209" t="s">
-        <v>369</v>
-      </c>
-      <c r="C209" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3">
-      <c r="B210" t="s">
-        <v>371</v>
-      </c>
-      <c r="C210" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3">
-      <c r="B211" t="s">
-        <v>374</v>
-      </c>
-      <c r="C211" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3">
-      <c r="B212" t="s">
-        <v>376</v>
-      </c>
-      <c r="C212" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3">
-      <c r="B213" t="s">
-        <v>378</v>
-      </c>
-      <c r="C213" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3">
-      <c r="B214" t="s">
-        <v>380</v>
-      </c>
-      <c r="C214" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3">
-      <c r="B215" t="s">
-        <v>382</v>
-      </c>
-      <c r="C215" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3">
-      <c r="B216" t="s">
-        <v>384</v>
-      </c>
-      <c r="C216" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3">
-      <c r="B217" t="s">
-        <v>386</v>
-      </c>
-      <c r="C217" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3">
-      <c r="A219">
-        <v>1287</v>
-      </c>
-      <c r="B219" t="s">
-        <v>388</v>
-      </c>
-      <c r="C219" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3">
-      <c r="B220" t="s">
-        <v>390</v>
-      </c>
-      <c r="C220" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3">
-      <c r="B221" t="s">
-        <v>392</v>
-      </c>
-      <c r="C221" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3">
-      <c r="B222" t="s">
-        <v>394</v>
-      </c>
-      <c r="C222" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3">
-      <c r="B223" t="s">
-        <v>396</v>
-      </c>
-      <c r="C223" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3">
-      <c r="B224" t="s">
-        <v>398</v>
-      </c>
-      <c r="C224" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3">
-      <c r="B225" t="s">
-        <v>400</v>
-      </c>
-      <c r="C225" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3">
-      <c r="B226" t="s">
-        <v>402</v>
-      </c>
-      <c r="C226" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3">
-      <c r="B227" t="s">
-        <v>404</v>
-      </c>
-      <c r="C227" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3">
-      <c r="B228" t="s">
-        <v>406</v>
-      </c>
-      <c r="C228" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3">
-      <c r="B229" t="s">
-        <v>408</v>
-      </c>
-      <c r="C229" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3">
-      <c r="B230" t="s">
-        <v>410</v>
-      </c>
-      <c r="C230" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3">
-      <c r="B231" t="s">
-        <v>412</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3">
-      <c r="B232" t="s">
-        <v>414</v>
-      </c>
-      <c r="C232" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3">
-      <c r="B233" t="s">
-        <v>416</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3">
-      <c r="B234" t="s">
-        <v>418</v>
-      </c>
-      <c r="C234" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3">
-      <c r="B235" t="s">
-        <v>420</v>
-      </c>
-      <c r="C235" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3">
-      <c r="A237">
-        <v>1288</v>
-      </c>
-      <c r="B237" t="s">
-        <v>422</v>
-      </c>
-      <c r="C237" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3">
-      <c r="B238" t="s">
-        <v>425</v>
-      </c>
-      <c r="C238" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3">
-      <c r="B239" t="s">
-        <v>426</v>
-      </c>
-      <c r="C239" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3">
-      <c r="B240" t="s">
-        <v>428</v>
-      </c>
-      <c r="C240" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3">
-      <c r="B241" t="s">
-        <v>430</v>
-      </c>
-      <c r="C241" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3">
-      <c r="B242" t="s">
-        <v>432</v>
-      </c>
-      <c r="C242" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3">
-      <c r="B243" t="s">
-        <v>434</v>
-      </c>
-      <c r="C243" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3">
-      <c r="B244" t="s">
-        <v>436</v>
-      </c>
-      <c r="C244" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3">
-      <c r="B245" t="s">
-        <v>438</v>
-      </c>
-      <c r="C245" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3">
-      <c r="B246" t="s">
-        <v>440</v>
-      </c>
-      <c r="C246" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3">
-      <c r="B247" t="s">
-        <v>442</v>
-      </c>
-      <c r="C247" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3">
-      <c r="B248" t="s">
-        <v>444</v>
-      </c>
-      <c r="C248" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3">
-      <c r="A250">
-        <v>1289</v>
-      </c>
-      <c r="B250" t="s">
-        <v>446</v>
-      </c>
-      <c r="C250" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3">
-      <c r="B251" t="s">
-        <v>448</v>
-      </c>
-      <c r="C251" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3">
-      <c r="B252" t="s">
-        <v>453</v>
-      </c>
-      <c r="C252" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3">
-      <c r="B253" t="s">
-        <v>449</v>
-      </c>
-      <c r="C253" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3">
-      <c r="B254" t="s">
-        <v>450</v>
-      </c>
-      <c r="C254" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3">
-      <c r="B255" t="s">
-        <v>451</v>
-      </c>
-      <c r="C255" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3">
-      <c r="B256" t="s">
-        <v>466</v>
-      </c>
-      <c r="C256" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3">
-      <c r="B257" t="s">
-        <v>456</v>
-      </c>
-      <c r="C257" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3">
-      <c r="B258" t="s">
-        <v>458</v>
-      </c>
-      <c r="C258" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3">
-      <c r="B259" t="s">
-        <v>462</v>
-      </c>
-      <c r="C259" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3">
-      <c r="B260" t="s">
-        <v>464</v>
-      </c>
-      <c r="C260" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3">
-      <c r="A262">
-        <v>1290</v>
-      </c>
-      <c r="B262" t="s">
-        <v>468</v>
-      </c>
-      <c r="C262" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3">
-      <c r="B263" t="s">
-        <v>471</v>
-      </c>
-      <c r="C263" s="6" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3">
-      <c r="B264" t="s">
-        <v>472</v>
-      </c>
-      <c r="C264" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3">
-      <c r="B265" t="s">
-        <v>474</v>
-      </c>
-      <c r="C265" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3">
-      <c r="B266" t="s">
-        <v>476</v>
-      </c>
-      <c r="C266" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3">
-      <c r="B267" t="s">
-        <v>478</v>
-      </c>
-      <c r="C267" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3">
-      <c r="B268" t="s">
-        <v>480</v>
-      </c>
-      <c r="C268" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3">
-      <c r="B269" t="s">
-        <v>482</v>
-      </c>
-      <c r="C269" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3">
-      <c r="B270" t="s">
-        <v>484</v>
-      </c>
-      <c r="C270" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3">
-      <c r="B271" t="s">
-        <v>486</v>
-      </c>
-      <c r="C271" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3">
-      <c r="B272" t="s">
-        <v>488</v>
-      </c>
-      <c r="C272" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3">
-      <c r="B273" t="s">
-        <v>490</v>
-      </c>
-      <c r="C273" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3">
-      <c r="A275">
-        <v>1291</v>
-      </c>
-      <c r="B275" t="s">
-        <v>495</v>
-      </c>
-      <c r="C275" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3">
-      <c r="B276" t="s">
-        <v>492</v>
-      </c>
-      <c r="C276" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3">
-      <c r="B277" t="s">
-        <v>496</v>
-      </c>
-      <c r="C277" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3">
-      <c r="B278" t="s">
-        <v>498</v>
-      </c>
-      <c r="C278" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3">
-      <c r="B279" t="s">
-        <v>500</v>
-      </c>
-      <c r="C279" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3">
-      <c r="B280" t="s">
-        <v>517</v>
-      </c>
-      <c r="C280" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3">
-      <c r="B281" t="s">
-        <v>502</v>
-      </c>
-      <c r="C281" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3">
-      <c r="B282" t="s">
-        <v>504</v>
-      </c>
-      <c r="C282" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3">
-      <c r="B283" t="s">
-        <v>506</v>
-      </c>
-      <c r="C283" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" ht="45" customHeight="1">
-      <c r="B284" s="5" t="s">
-        <v>508</v>
-      </c>
-      <c r="C284" s="13" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" ht="45" customHeight="1">
-      <c r="B285" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="C285" s="14"/>
-    </row>
-    <row r="286" spans="1:3">
-      <c r="B286" t="s">
-        <v>511</v>
-      </c>
-      <c r="C286" s="1" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3">
-      <c r="B287" t="s">
-        <v>513</v>
-      </c>
-      <c r="C287" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3">
-      <c r="B288" t="s">
-        <v>515</v>
-      </c>
-      <c r="C288" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3">
-      <c r="B289" t="s">
-        <v>519</v>
-      </c>
-      <c r="C289" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3">
-      <c r="B290" t="s">
-        <v>521</v>
-      </c>
-      <c r="C290" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3">
-      <c r="A292">
-        <v>1292</v>
-      </c>
-      <c r="B292" t="s">
-        <v>528</v>
-      </c>
-      <c r="C292" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3">
-      <c r="B293" t="s">
-        <v>530</v>
-      </c>
-      <c r="C293" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3">
-      <c r="B294" t="s">
-        <v>532</v>
-      </c>
-      <c r="C294" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3">
-      <c r="B295" t="s">
-        <v>534</v>
-      </c>
-      <c r="C295" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3">
-      <c r="B296" t="s">
-        <v>536</v>
-      </c>
-      <c r="C296" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3">
-      <c r="B297" t="s">
-        <v>538</v>
-      </c>
-      <c r="C297" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3">
-      <c r="B298" t="s">
-        <v>540</v>
-      </c>
-      <c r="C298" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3">
-      <c r="B299" t="s">
-        <v>559</v>
-      </c>
-      <c r="C299" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3">
-      <c r="B300" t="s">
-        <v>542</v>
-      </c>
-      <c r="C300" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3">
-      <c r="B301" t="s">
-        <v>544</v>
-      </c>
-      <c r="C301" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3">
-      <c r="B302" t="s">
-        <v>546</v>
-      </c>
-      <c r="C302" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3">
-      <c r="B303" t="s">
-        <v>548</v>
-      </c>
-      <c r="C303" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3">
-      <c r="B304" t="s">
-        <v>550</v>
-      </c>
-      <c r="C304" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3">
-      <c r="B305" t="s">
-        <v>552</v>
-      </c>
-      <c r="C305" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3">
-      <c r="B306" t="s">
-        <v>554</v>
-      </c>
-      <c r="C306" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3">
-      <c r="B307" t="s">
-        <v>556</v>
-      </c>
-      <c r="C307" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3">
-      <c r="B308" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3">
-      <c r="A310">
-        <v>1293</v>
-      </c>
-      <c r="B310" t="s">
-        <v>590</v>
-      </c>
-      <c r="C310" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3">
-      <c r="B311" t="s">
-        <v>592</v>
-      </c>
-      <c r="C311" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3">
-      <c r="B312" t="s">
-        <v>594</v>
-      </c>
-      <c r="C312" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3">
-      <c r="B313" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3">
-      <c r="B314" t="s">
-        <v>597</v>
-      </c>
-      <c r="C314" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3">
-      <c r="B315" t="s">
-        <v>599</v>
-      </c>
-      <c r="C315" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3">
-      <c r="B316" t="s">
-        <v>601</v>
-      </c>
-      <c r="C316" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3">
-      <c r="B317" t="s">
-        <v>603</v>
-      </c>
-      <c r="C317" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3">
-      <c r="C318" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3">
-      <c r="B319" t="s">
-        <v>604</v>
-      </c>
-      <c r="C319" s="1" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3">
-      <c r="B320" t="s">
-        <v>606</v>
-      </c>
-      <c r="C320" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3">
-      <c r="B321" t="s">
-        <v>608</v>
-      </c>
-      <c r="C321" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3">
-      <c r="B322" t="s">
-        <v>610</v>
-      </c>
-      <c r="C322" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3">
-      <c r="C323" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3">
-      <c r="B324" t="s">
-        <v>615</v>
-      </c>
-      <c r="C324" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3">
-      <c r="B325" t="s">
-        <v>617</v>
-      </c>
-      <c r="C325" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3">
-      <c r="B326" t="s">
-        <v>619</v>
-      </c>
-      <c r="C326" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3">
-      <c r="B327" t="s">
-        <v>621</v>
-      </c>
-      <c r="C327" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3">
-      <c r="B328" t="s">
-        <v>623</v>
-      </c>
-      <c r="C328" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3">
-      <c r="A330">
-        <v>1294</v>
-      </c>
-      <c r="B330" t="s">
-        <v>684</v>
-      </c>
-      <c r="C330" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3">
-      <c r="B331" t="s">
-        <v>683</v>
-      </c>
-      <c r="C331" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3">
-      <c r="C332" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3">
-      <c r="B333" t="s">
-        <v>688</v>
-      </c>
-      <c r="C333" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3">
-      <c r="B334" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3">
-      <c r="B335" t="s">
-        <v>691</v>
-      </c>
-      <c r="C335" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3">
-      <c r="B336" t="s">
-        <v>693</v>
-      </c>
-      <c r="C336" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3">
-      <c r="C337" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3">
-      <c r="B338" t="s">
-        <v>696</v>
-      </c>
-      <c r="C338" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3">
-      <c r="B339" t="s">
-        <v>698</v>
-      </c>
-      <c r="C339" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3">
-      <c r="C340" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3">
-      <c r="B341" t="s">
-        <v>701</v>
-      </c>
-      <c r="C341" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3">
-      <c r="B342" t="s">
-        <v>703</v>
-      </c>
-      <c r="C342" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3">
-      <c r="B343" t="s">
-        <v>705</v>
-      </c>
-      <c r="C343" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3">
-      <c r="B344" t="s">
-        <v>707</v>
-      </c>
-      <c r="C344" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3">
-      <c r="B345" t="s">
-        <v>711</v>
-      </c>
-      <c r="C345" s="1" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3">
-      <c r="B346" t="s">
-        <v>709</v>
-      </c>
-      <c r="C346" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3">
-      <c r="A348">
-        <v>1295</v>
-      </c>
-      <c r="B348" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3">
-      <c r="B349" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3">
-      <c r="B350" t="s">
-        <v>747</v>
-      </c>
-      <c r="C350" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3">
-      <c r="B351" t="s">
-        <v>746</v>
-      </c>
-      <c r="C351" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3">
-      <c r="B352" t="s">
-        <v>749</v>
-      </c>
-      <c r="C352" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="353" spans="2:3">
-      <c r="B353" t="s">
-        <v>751</v>
-      </c>
-      <c r="C353" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="354" spans="2:3">
-      <c r="B354" t="s">
-        <v>753</v>
-      </c>
-      <c r="C354" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="355" spans="2:3">
-      <c r="B355" t="s">
-        <v>755</v>
-      </c>
-      <c r="C355" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="356" spans="2:3">
-      <c r="B356" t="s">
-        <v>757</v>
-      </c>
-      <c r="C356" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="357" spans="2:3">
-      <c r="B357" t="s">
-        <v>759</v>
-      </c>
-      <c r="C357" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="358" spans="2:3">
-      <c r="B358" t="s">
-        <v>761</v>
-      </c>
-      <c r="C358" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="359" spans="2:3">
-      <c r="B359" t="s">
-        <v>763</v>
-      </c>
-      <c r="C359" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="360" spans="2:3">
-      <c r="B360" t="s">
-        <v>765</v>
-      </c>
-      <c r="C360" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="361" spans="2:3">
-      <c r="B361" t="s">
-        <v>767</v>
-      </c>
-      <c r="C361" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="362" spans="2:3">
-      <c r="B362" t="s">
-        <v>769</v>
-      </c>
-      <c r="C362" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="363" spans="2:3">
-      <c r="B363" t="s">
-        <v>771</v>
-      </c>
-      <c r="C363" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="364" spans="2:3">
-      <c r="B364" t="s">
-        <v>773</v>
-      </c>
-      <c r="C364" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="365" spans="2:3">
-      <c r="B365" t="s">
-        <v>775</v>
-      </c>
-      <c r="C365" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="366" spans="2:3">
-      <c r="B366" t="s">
-        <v>777</v>
-      </c>
-      <c r="C366" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="367" spans="2:3">
-      <c r="B367" t="s">
-        <v>779</v>
-      </c>
-      <c r="C367" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="368" spans="2:3">
-      <c r="B368" t="s">
-        <v>781</v>
-      </c>
-      <c r="C368" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3">
-      <c r="B369" t="s">
-        <v>783</v>
-      </c>
-      <c r="C369" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3">
-      <c r="B370" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="372" spans="1:3">
-      <c r="A372">
-        <v>1296</v>
-      </c>
-      <c r="B372" t="s">
-        <v>786</v>
-      </c>
-      <c r="C372" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3">
-      <c r="B373" t="s">
-        <v>788</v>
-      </c>
-      <c r="C373" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3">
-      <c r="B374" t="s">
-        <v>790</v>
-      </c>
-      <c r="C374" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="375" spans="1:3">
-      <c r="B375" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="376" spans="1:3">
-      <c r="B376" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3">
-      <c r="B377" t="s">
-        <v>792</v>
-      </c>
-      <c r="C377" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3">
-      <c r="B378" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3">
-      <c r="B379" t="s">
-        <v>797</v>
-      </c>
-      <c r="C379" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3">
-      <c r="B380" t="s">
-        <v>799</v>
-      </c>
-      <c r="C380" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3">
-      <c r="B381" t="s">
-        <v>801</v>
-      </c>
-      <c r="C381" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3">
-      <c r="B382" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="383" spans="1:3">
-      <c r="B383" t="s">
-        <v>804</v>
-      </c>
-      <c r="C383" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3">
-      <c r="B384" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="386" spans="1:3">
-      <c r="A386">
-        <v>1297</v>
-      </c>
-      <c r="B386" t="s">
-        <v>809</v>
-      </c>
-      <c r="C386" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="387" spans="1:3">
-      <c r="B387" t="s">
-        <v>811</v>
-      </c>
-      <c r="C387" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="388" spans="1:3">
-      <c r="B388" t="s">
-        <v>813</v>
-      </c>
-      <c r="C388" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="389" spans="1:3">
-      <c r="B389" t="s">
-        <v>815</v>
-      </c>
-      <c r="C389" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="390" spans="1:3">
-      <c r="B390" t="s">
-        <v>817</v>
-      </c>
-      <c r="C390" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="391" spans="1:3">
-      <c r="B391" t="s">
-        <v>819</v>
-      </c>
-      <c r="C391" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="392" spans="1:3">
-      <c r="B392" t="s">
-        <v>821</v>
-      </c>
-      <c r="C392" s="1" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="393" spans="1:3">
-      <c r="B393" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="394" spans="1:3">
-      <c r="B394" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="395" spans="1:3">
-      <c r="B395" t="s">
-        <v>824</v>
-      </c>
-      <c r="C395" s="1" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="396" spans="1:3">
-      <c r="B396" t="s">
-        <v>827</v>
-      </c>
-      <c r="C396" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="397" spans="1:3">
-      <c r="B397" t="s">
-        <v>829</v>
-      </c>
-      <c r="C397" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="398" spans="1:3">
-      <c r="B398" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="399" spans="1:3">
-      <c r="B399" t="s">
-        <v>832</v>
-      </c>
-      <c r="C399" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="400" spans="1:3">
-      <c r="B400" t="s">
-        <v>834</v>
-      </c>
-      <c r="C400" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="401" spans="1:3">
-      <c r="B401" t="s">
-        <v>836</v>
-      </c>
-      <c r="C401" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="402" spans="1:3">
-      <c r="B402" t="s">
-        <v>838</v>
-      </c>
-      <c r="C402" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="403" spans="1:3">
-      <c r="B403" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="404" spans="1:3">
-      <c r="B404" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="405" spans="1:3">
-      <c r="B405" t="s">
-        <v>842</v>
-      </c>
-      <c r="C405" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="406" spans="1:3">
-      <c r="B406" t="s">
-        <v>844</v>
-      </c>
-      <c r="C406" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="408" spans="1:3">
-      <c r="A408">
-        <v>1298</v>
-      </c>
-      <c r="B408" t="s">
-        <v>846</v>
-      </c>
-      <c r="C408" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="409" spans="1:3">
-      <c r="C409" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="410" spans="1:3">
-      <c r="B410" t="s">
-        <v>849</v>
-      </c>
-      <c r="C410" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="411" spans="1:3">
-      <c r="B411" t="s">
-        <v>851</v>
-      </c>
-      <c r="C411" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="412" spans="1:3">
-      <c r="B412" t="s">
-        <v>853</v>
-      </c>
-      <c r="C412" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="413" spans="1:3">
-      <c r="C413" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="414" spans="1:3">
-      <c r="B414" t="s">
-        <v>856</v>
-      </c>
-      <c r="C414" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="415" spans="1:3">
-      <c r="B415" t="s">
-        <v>858</v>
-      </c>
-      <c r="C415" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="416" spans="1:3">
-      <c r="B416" t="s">
-        <v>860</v>
-      </c>
-      <c r="C416" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="417" spans="1:3">
-      <c r="B417" s="15" t="s">
-        <v>862</v>
-      </c>
-      <c r="C417" s="15"/>
-    </row>
-    <row r="418" spans="1:3">
-      <c r="B418" t="s">
-        <v>863</v>
-      </c>
-      <c r="C418" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="419" spans="1:3">
-      <c r="B419" t="s">
-        <v>865</v>
-      </c>
-      <c r="C419" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="420" spans="1:3">
-      <c r="B420" t="s">
-        <v>867</v>
-      </c>
-      <c r="C420" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="421" spans="1:3">
-      <c r="B421" t="s">
-        <v>869</v>
-      </c>
-      <c r="C421" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="422" spans="1:3">
-      <c r="B422" t="s">
-        <v>871</v>
-      </c>
-      <c r="C422" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="424" spans="1:3">
-      <c r="A424">
-        <v>1299</v>
-      </c>
-      <c r="B424" t="s">
-        <v>937</v>
-      </c>
-      <c r="C424" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="425" spans="1:3">
-      <c r="B425" t="s">
-        <v>942</v>
-      </c>
-      <c r="C425" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="426" spans="1:3">
-      <c r="B426" t="s">
-        <v>945</v>
-      </c>
-      <c r="C426" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="427" spans="1:3">
-      <c r="B427" t="s">
-        <v>938</v>
-      </c>
-      <c r="C427" s="6" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="428" spans="1:3">
-      <c r="B428" t="s">
-        <v>941</v>
-      </c>
-      <c r="C428" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="429" spans="1:3">
-      <c r="B429" t="s">
-        <v>947</v>
-      </c>
-      <c r="C429" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="430" spans="1:3">
-      <c r="B430" t="s">
-        <v>949</v>
-      </c>
-      <c r="C430" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="431" spans="1:3">
-      <c r="B431" t="s">
-        <v>951</v>
-      </c>
-      <c r="C431" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="432" spans="1:3">
-      <c r="B432" s="9" t="s">
-        <v>953</v>
-      </c>
-      <c r="C432" s="1" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="433" spans="1:3">
-      <c r="B433" t="s">
-        <v>955</v>
-      </c>
-      <c r="C433" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="434" spans="1:3">
-      <c r="B434" t="s">
-        <v>957</v>
-      </c>
-      <c r="C434" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="435" spans="1:3">
-      <c r="B435" t="s">
-        <v>959</v>
-      </c>
-      <c r="C435" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="436" spans="1:3">
-      <c r="B436" t="s">
-        <v>961</v>
-      </c>
-      <c r="C436" s="1" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="437" spans="1:3">
-      <c r="B437" t="s">
-        <v>964</v>
-      </c>
-      <c r="C437" s="6" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="438" spans="1:3">
-      <c r="B438" t="s">
-        <v>965</v>
-      </c>
-      <c r="C438" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="439" spans="1:3">
-      <c r="B439" t="s">
-        <v>967</v>
-      </c>
-      <c r="C439" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="440" spans="1:3">
-      <c r="B440" t="s">
-        <v>969</v>
-      </c>
-      <c r="C440" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="441" spans="1:3">
-      <c r="B441" t="s">
-        <v>971</v>
-      </c>
-      <c r="C441" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="442" spans="1:3">
-      <c r="C442" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="444" spans="1:3">
-      <c r="A444">
-        <v>1300</v>
-      </c>
-      <c r="B444" t="s">
-        <v>974</v>
-      </c>
-      <c r="C444" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="445" spans="1:3">
-      <c r="B445" t="s">
-        <v>976</v>
-      </c>
-      <c r="C445" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="446" spans="1:3">
-      <c r="B446" t="s">
-        <v>978</v>
-      </c>
-      <c r="C446" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="447" spans="1:3">
-      <c r="B447" t="s">
-        <v>980</v>
-      </c>
-      <c r="C447" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="448" spans="1:3">
-      <c r="B448" t="s">
-        <v>982</v>
-      </c>
-      <c r="C448" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="449" spans="1:3">
-      <c r="B449" t="s">
-        <v>984</v>
-      </c>
-      <c r="C449" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="450" spans="1:3">
-      <c r="B450" t="s">
-        <v>986</v>
-      </c>
-      <c r="C450" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="451" spans="1:3">
-      <c r="B451" t="s">
-        <v>988</v>
-      </c>
-      <c r="C451" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="452" spans="1:3">
-      <c r="B452" t="s">
-        <v>990</v>
-      </c>
-      <c r="C452" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="453" spans="1:3">
-      <c r="B453" t="s">
-        <v>992</v>
-      </c>
-      <c r="C453" s="9" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="454" spans="1:3">
-      <c r="B454" t="s">
-        <v>994</v>
-      </c>
-      <c r="C454" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="455" spans="1:3">
-      <c r="B455" t="s">
-        <v>996</v>
-      </c>
-      <c r="C455" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="457" spans="1:3">
-      <c r="A457">
-        <v>1301</v>
-      </c>
-      <c r="B457" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C457" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="458" spans="1:3">
-      <c r="B458" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C458" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="459" spans="1:3">
-      <c r="B459" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C459" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="460" spans="1:3">
-      <c r="B460" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C460" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="461" spans="1:3">
-      <c r="B461" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C461" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="462" spans="1:3">
-      <c r="B462" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C462" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="463" spans="1:3">
-      <c r="B463" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C463" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="464" spans="1:3">
-      <c r="B464" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C464" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="465" spans="1:3">
-      <c r="B465" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C465" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="466" spans="1:3">
-      <c r="B466" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C466" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="467" spans="1:3">
-      <c r="C467" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="468" spans="1:3">
-      <c r="B468" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C468" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="469" spans="1:3">
-      <c r="B469" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C469" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="470" spans="1:3">
-      <c r="C470" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="471" spans="1:3">
-      <c r="B471" s="9" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C471" s="9" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="472" spans="1:3">
-      <c r="B472" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C472" s="1" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="473" spans="1:3">
-      <c r="B473" s="10" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C473" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="474" spans="1:3">
-      <c r="B474" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C474" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="475" spans="1:3">
-      <c r="B475" t="s">
-        <v>1065</v>
-      </c>
-      <c r="C475" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="476" spans="1:3">
-      <c r="B476" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="477" spans="1:3">
-      <c r="B477" s="9" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C477" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="479" spans="1:3">
-      <c r="A479">
-        <v>1302</v>
-      </c>
-      <c r="B479" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C479" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="480" spans="1:3">
-      <c r="C480" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="481" spans="1:3">
-      <c r="B481" t="s">
-        <v>1073</v>
-      </c>
-      <c r="C481" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="482" spans="1:3">
-      <c r="B482" t="s">
-        <v>1075</v>
-      </c>
-      <c r="C482" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="483" spans="1:3">
-      <c r="B483" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C483" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="484" spans="1:3">
-      <c r="B484" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C484" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="485" spans="1:3">
-      <c r="B485" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C485" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="486" spans="1:3">
-      <c r="B486" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C486" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="487" spans="1:3">
-      <c r="B487" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C487" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="488" spans="1:3">
-      <c r="B488" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C488" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="489" spans="1:3">
-      <c r="B489" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C489" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="490" spans="1:3">
-      <c r="B490" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C490" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="491" spans="1:3">
-      <c r="B491" t="s">
-        <v>1093</v>
-      </c>
-      <c r="C491" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="492" spans="1:3">
-      <c r="C492" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="493" spans="1:3">
-      <c r="B493" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C493" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="494" spans="1:3">
-      <c r="B494" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C494" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="496" spans="1:3">
-      <c r="A496">
-        <v>1303</v>
-      </c>
-      <c r="B496" s="11">
-        <v>1303</v>
-      </c>
-      <c r="C496" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="497" spans="1:3">
-      <c r="B497" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="498" spans="1:3">
-      <c r="B498" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="499" spans="1:3">
-      <c r="B499" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="500" spans="1:3">
-      <c r="B500" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C500" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="501" spans="1:3">
-      <c r="B501" t="s">
-        <v>1103</v>
-      </c>
-      <c r="C501" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="502" spans="1:3">
-      <c r="B502" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C502" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="503" spans="1:3">
-      <c r="B503" t="s">
-        <v>1109</v>
-      </c>
-      <c r="C503" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="504" spans="1:3">
-      <c r="B504" t="s">
-        <v>1111</v>
-      </c>
-      <c r="C504" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="505" spans="1:3">
-      <c r="C505" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="506" spans="1:3">
-      <c r="B506" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C506" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="507" spans="1:3">
-      <c r="B507" t="s">
-        <v>1116</v>
-      </c>
-      <c r="C507" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="508" spans="1:3">
-      <c r="B508" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="510" spans="1:3">
-      <c r="A510">
-        <v>1304</v>
-      </c>
-      <c r="B510" s="15" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C510" s="15"/>
-    </row>
-    <row r="511" spans="1:3">
-      <c r="B511" t="s">
-        <v>1120</v>
-      </c>
-      <c r="C511" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="512" spans="1:3">
-      <c r="B512" t="s">
-        <v>1121</v>
-      </c>
-      <c r="C512" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="513" spans="1:3">
-      <c r="B513" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C513" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="514" spans="1:3">
-      <c r="B514" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="515" spans="1:3">
-      <c r="B515" t="s">
-        <v>1126</v>
-      </c>
-      <c r="C515" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="516" spans="1:3">
-      <c r="B516" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C516" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="517" spans="1:3">
-      <c r="B517" t="s">
-        <v>1131</v>
-      </c>
-      <c r="C517" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="518" spans="1:3">
-      <c r="B518" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C518" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="519" spans="1:3">
-      <c r="B519" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="520" spans="1:3">
-      <c r="B520" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C520" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="521" spans="1:3">
-      <c r="B521" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C521" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="522" spans="1:3">
-      <c r="B522" t="s">
-        <v>1140</v>
-      </c>
-      <c r="C522" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="524" spans="1:3">
-      <c r="A524">
-        <v>1305</v>
-      </c>
+      <c r="A3">
+        <v>1169</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" s="1"/>
+    </row>
+    <row r="108" spans="3:3">
+      <c r="C108" s="1"/>
+    </row>
+    <row r="109" spans="3:3">
+      <c r="C109" s="1"/>
+    </row>
+    <row r="118" spans="3:3">
+      <c r="C118" s="1"/>
+    </row>
+    <row r="132" spans="3:3">
+      <c r="C132" s="1"/>
+    </row>
+    <row r="133" spans="3:3">
+      <c r="C133" s="1"/>
+    </row>
+    <row r="134" spans="3:3">
+      <c r="C134" s="1"/>
+    </row>
+    <row r="135" spans="3:3">
+      <c r="C135" s="1"/>
+    </row>
+    <row r="138" spans="3:3">
+      <c r="C138" s="1"/>
+    </row>
+    <row r="139" spans="3:3">
+      <c r="C139" s="1"/>
+    </row>
+    <row r="140" spans="3:3">
+      <c r="C140" s="1"/>
+    </row>
+    <row r="141" spans="3:3">
+      <c r="C141" s="1"/>
+    </row>
+    <row r="144" spans="3:3">
+      <c r="C144" s="1"/>
+    </row>
+    <row r="145" spans="3:3">
+      <c r="C145" s="1"/>
+    </row>
+    <row r="146" spans="3:3">
+      <c r="C146" s="1"/>
+    </row>
+    <row r="147" spans="3:3">
+      <c r="C147" s="1"/>
+    </row>
+    <row r="148" spans="3:3">
+      <c r="C148" s="1"/>
+    </row>
+    <row r="149" spans="3:3">
+      <c r="C149" s="1"/>
+    </row>
+    <row r="150" spans="3:3">
+      <c r="C150" s="1"/>
+    </row>
+    <row r="151" spans="3:3">
+      <c r="C151" s="1"/>
+    </row>
+    <row r="152" spans="3:3">
+      <c r="C152" s="3"/>
+    </row>
+    <row r="154" spans="3:3">
+      <c r="C154" s="1"/>
+    </row>
+    <row r="155" spans="3:3">
+      <c r="C155" s="1"/>
+    </row>
+    <row r="168" spans="3:3">
+      <c r="C168" s="1"/>
+    </row>
+    <row r="169" spans="3:3">
+      <c r="C169" s="1"/>
+    </row>
+    <row r="179" spans="3:3">
+      <c r="C179" s="13"/>
+    </row>
+    <row r="180" spans="3:3">
+      <c r="C180" s="13"/>
+    </row>
+    <row r="193" spans="2:3" ht="84.75" customHeight="1">
+      <c r="B193" s="5"/>
+      <c r="C193" s="4"/>
+    </row>
+    <row r="200" spans="2:3">
+      <c r="C200" s="1"/>
+    </row>
+    <row r="231" spans="3:3">
+      <c r="C231" s="1"/>
+    </row>
+    <row r="232" spans="3:3">
+      <c r="C232" s="1"/>
+    </row>
+    <row r="233" spans="3:3">
+      <c r="C233" s="1"/>
+    </row>
+    <row r="256" spans="3:3">
+      <c r="C256" s="1"/>
+    </row>
+    <row r="263" spans="3:3">
+      <c r="C263" s="6"/>
+    </row>
+    <row r="284" spans="2:3" ht="45" customHeight="1">
+      <c r="B284" s="5"/>
+      <c r="C284" s="14"/>
+    </row>
+    <row r="285" spans="2:3" ht="45" customHeight="1">
+      <c r="B285" s="5"/>
+      <c r="C285" s="15"/>
+    </row>
+    <row r="286" spans="2:3">
+      <c r="C286" s="1"/>
+    </row>
+    <row r="319" spans="3:3">
+      <c r="C319" s="1"/>
+    </row>
+    <row r="345" spans="3:3">
+      <c r="C345" s="1"/>
+    </row>
+    <row r="392" spans="3:3">
+      <c r="C392" s="1"/>
+    </row>
+    <row r="395" spans="3:3">
+      <c r="C395" s="1"/>
+    </row>
+    <row r="417" spans="2:3">
+      <c r="B417" s="16"/>
+      <c r="C417" s="16"/>
+    </row>
+    <row r="427" spans="2:3">
+      <c r="C427" s="6"/>
+    </row>
+    <row r="432" spans="2:3">
+      <c r="B432" s="9"/>
+      <c r="C432" s="1"/>
+    </row>
+    <row r="436" spans="3:3">
+      <c r="C436" s="1"/>
+    </row>
+    <row r="437" spans="3:3">
+      <c r="C437" s="6"/>
+    </row>
+    <row r="453" spans="3:3">
+      <c r="C453" s="9"/>
+    </row>
+    <row r="471" spans="2:3">
+      <c r="B471" s="9"/>
+      <c r="C471" s="9"/>
+    </row>
+    <row r="472" spans="2:3">
+      <c r="C472" s="1"/>
+    </row>
+    <row r="473" spans="2:3">
+      <c r="B473" s="10"/>
+    </row>
+    <row r="477" spans="2:3">
+      <c r="B477" s="9"/>
+    </row>
+    <row r="496" spans="2:2">
+      <c r="B496" s="12"/>
+    </row>
+    <row r="510" spans="2:3">
+      <c r="B510" s="16"/>
+      <c r="C510" s="16"/>
+    </row>
+    <row r="530" spans="2:2">
+      <c r="B530" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -10122,6 +6637,3981 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A3:C542"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="5.375" customWidth="1"/>
+    <col min="2" max="2" width="45.125" customWidth="1"/>
+    <col min="3" max="3" width="118.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3">
+      <c r="B3" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>1274</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>1275</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="B33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="B35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="B36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>1276</v>
+      </c>
+      <c r="B38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="B39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="B40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="B41" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="B42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="B43" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="B44" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="B45" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="B46" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="B47" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="B48" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="B49" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="B50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="B51" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>1277</v>
+      </c>
+      <c r="B53" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="B54" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="B55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="B56" t="s">
+        <v>109</v>
+      </c>
+      <c r="C56" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="B57" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="B58" t="s">
+        <v>111</v>
+      </c>
+      <c r="C58" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="B59" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="B60" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="B61" t="s">
+        <v>116</v>
+      </c>
+      <c r="C61" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="B62" t="s">
+        <v>118</v>
+      </c>
+      <c r="C62" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="B63" t="s">
+        <v>120</v>
+      </c>
+      <c r="C63" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="B64" t="s">
+        <v>122</v>
+      </c>
+      <c r="C64" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="B65" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="B66" t="s">
+        <v>125</v>
+      </c>
+      <c r="C66" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>1278</v>
+      </c>
+      <c r="B68" t="s">
+        <v>127</v>
+      </c>
+      <c r="C68" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="B69" t="s">
+        <v>128</v>
+      </c>
+      <c r="C69" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="B70" t="s">
+        <v>130</v>
+      </c>
+      <c r="C70" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="B71" t="s">
+        <v>132</v>
+      </c>
+      <c r="C71" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="B72" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="B73" t="s">
+        <v>136</v>
+      </c>
+      <c r="C73" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="B74" t="s">
+        <v>138</v>
+      </c>
+      <c r="C74" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="B75" t="s">
+        <v>140</v>
+      </c>
+      <c r="C75" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="B76" t="s">
+        <v>142</v>
+      </c>
+      <c r="C76" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="B77" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="B78" t="s">
+        <v>145</v>
+      </c>
+      <c r="C78" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="B79" t="s">
+        <v>147</v>
+      </c>
+      <c r="C79" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="B80" t="s">
+        <v>150</v>
+      </c>
+      <c r="C80" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="B81" t="s">
+        <v>149</v>
+      </c>
+      <c r="C81" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="B82" t="s">
+        <v>152</v>
+      </c>
+      <c r="C82" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="B83" t="s">
+        <v>155</v>
+      </c>
+      <c r="C83" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="B84" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="B85" t="s">
+        <v>157</v>
+      </c>
+      <c r="C85" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="B86" t="s">
+        <v>159</v>
+      </c>
+      <c r="C86" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>1279</v>
+      </c>
+      <c r="B88" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="B89" t="s">
+        <v>163</v>
+      </c>
+      <c r="C89" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="B90" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="B91" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="B92" t="s">
+        <v>165</v>
+      </c>
+      <c r="C92" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="B93" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="B94" t="s">
+        <v>168</v>
+      </c>
+      <c r="C94" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="B95" t="s">
+        <v>169</v>
+      </c>
+      <c r="C95" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="B96" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="B97" t="s">
+        <v>172</v>
+      </c>
+      <c r="C97" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="B98" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="B99" t="s">
+        <v>174</v>
+      </c>
+      <c r="C99" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="B100" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="B101" t="s">
+        <v>177</v>
+      </c>
+      <c r="C101" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="B102" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="B103" t="s">
+        <v>181</v>
+      </c>
+      <c r="C103" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="B104" t="s">
+        <v>183</v>
+      </c>
+      <c r="C104" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="B105" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="B106" t="s">
+        <v>187</v>
+      </c>
+      <c r="C106" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="B107" t="s">
+        <v>189</v>
+      </c>
+      <c r="C107" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="B108" t="s">
+        <v>191</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="B109" t="s">
+        <v>192</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111">
+        <v>1280</v>
+      </c>
+      <c r="B111" t="s">
+        <v>195</v>
+      </c>
+      <c r="C111" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="B112" t="s">
+        <v>196</v>
+      </c>
+      <c r="C112" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="B113" t="s">
+        <v>197</v>
+      </c>
+      <c r="C113" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="B114" t="s">
+        <v>199</v>
+      </c>
+      <c r="C114" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="B115" t="s">
+        <v>201</v>
+      </c>
+      <c r="C115" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="B116" t="s">
+        <v>203</v>
+      </c>
+      <c r="C116" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="B117" t="s">
+        <v>205</v>
+      </c>
+      <c r="C117" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="B118" t="s">
+        <v>208</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="B119" t="s">
+        <v>209</v>
+      </c>
+      <c r="C119" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="B120" t="s">
+        <v>211</v>
+      </c>
+      <c r="C120" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="B121" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="B122" t="s">
+        <v>214</v>
+      </c>
+      <c r="C122" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="B123" t="s">
+        <v>216</v>
+      </c>
+      <c r="C123" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="B124" t="s">
+        <v>218</v>
+      </c>
+      <c r="C124" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="B125" t="s">
+        <v>220</v>
+      </c>
+      <c r="C125" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="B126" t="s">
+        <v>222</v>
+      </c>
+      <c r="C126" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128">
+        <v>1281</v>
+      </c>
+      <c r="B128" t="s">
+        <v>225</v>
+      </c>
+      <c r="C128" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="B129" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="B130" t="s">
+        <v>227</v>
+      </c>
+      <c r="C130" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="B131" t="s">
+        <v>228</v>
+      </c>
+      <c r="C131" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="B132" t="s">
+        <v>229</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="B133" t="s">
+        <v>230</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="B134" t="s">
+        <v>231</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="B135" t="s">
+        <v>246</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="B136" t="s">
+        <v>232</v>
+      </c>
+      <c r="C136" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="B137" t="s">
+        <v>234</v>
+      </c>
+      <c r="C137" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="B138" t="s">
+        <v>238</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="B139" t="s">
+        <v>243</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="B140" t="s">
+        <v>247</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="B141" t="s">
+        <v>249</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143">
+        <v>1282</v>
+      </c>
+      <c r="C143" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="C144" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="B145" t="s">
+        <v>253</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="B146" t="s">
+        <v>254</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="B147" t="s">
+        <v>256</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="B148" t="s">
+        <v>258</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="B149" t="s">
+        <v>261</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="B150" t="s">
+        <v>263</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="B151" t="s">
+        <v>265</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="B152" t="s">
+        <v>267</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="B153" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="B154" t="s">
+        <v>270</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="B155" t="s">
+        <v>272</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157">
+        <v>1283</v>
+      </c>
+      <c r="B157" t="s">
+        <v>274</v>
+      </c>
+      <c r="C157" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="B158" t="s">
+        <v>275</v>
+      </c>
+      <c r="C158" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="B159" t="s">
+        <v>278</v>
+      </c>
+      <c r="C159" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="B160" t="s">
+        <v>280</v>
+      </c>
+      <c r="C160" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="B161" t="s">
+        <v>282</v>
+      </c>
+      <c r="C161" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="B162" t="s">
+        <v>284</v>
+      </c>
+      <c r="C162" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="B163" t="s">
+        <v>286</v>
+      </c>
+      <c r="C163" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="B164" t="s">
+        <v>288</v>
+      </c>
+      <c r="C164" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="B165" t="s">
+        <v>289</v>
+      </c>
+      <c r="C165" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="B166" t="s">
+        <v>292</v>
+      </c>
+      <c r="C166" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="B167" t="s">
+        <v>294</v>
+      </c>
+      <c r="C167" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="B168" t="s">
+        <v>296</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="B169" t="s">
+        <v>298</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="B170" t="s">
+        <v>301</v>
+      </c>
+      <c r="C170" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="B171" t="s">
+        <v>302</v>
+      </c>
+      <c r="C171" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173">
+        <v>1284</v>
+      </c>
+      <c r="B173" t="s">
+        <v>306</v>
+      </c>
+      <c r="C173" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="B174" t="s">
+        <v>308</v>
+      </c>
+      <c r="C174" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="B175" t="s">
+        <v>310</v>
+      </c>
+      <c r="C175" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="B176" t="s">
+        <v>312</v>
+      </c>
+      <c r="C176" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="B177" t="s">
+        <v>314</v>
+      </c>
+      <c r="C177" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="B178" t="s">
+        <v>316</v>
+      </c>
+      <c r="C178" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="B179" t="s">
+        <v>319</v>
+      </c>
+      <c r="C179" s="13" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="B180" t="s">
+        <v>318</v>
+      </c>
+      <c r="C180" s="13"/>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="B181" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="B182" t="s">
+        <v>322</v>
+      </c>
+      <c r="C182" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="B183" t="s">
+        <v>324</v>
+      </c>
+      <c r="C183" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="B184" t="s">
+        <v>326</v>
+      </c>
+      <c r="C184" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="B185" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="B186" t="s">
+        <v>329</v>
+      </c>
+      <c r="C186" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188">
+        <v>1285</v>
+      </c>
+      <c r="B188" t="s">
+        <v>331</v>
+      </c>
+      <c r="C188" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="B189" t="s">
+        <v>332</v>
+      </c>
+      <c r="C189" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="B190" t="s">
+        <v>334</v>
+      </c>
+      <c r="C190" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="B191" t="s">
+        <v>336</v>
+      </c>
+      <c r="C191" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="B192" t="s">
+        <v>338</v>
+      </c>
+      <c r="C192" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="84.75" customHeight="1">
+      <c r="B193" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="B194" t="s">
+        <v>342</v>
+      </c>
+      <c r="C194" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="B195" t="s">
+        <v>344</v>
+      </c>
+      <c r="C195" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="B196" t="s">
+        <v>346</v>
+      </c>
+      <c r="C196" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="B197" t="s">
+        <v>348</v>
+      </c>
+      <c r="C197" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="B198" t="s">
+        <v>351</v>
+      </c>
+      <c r="C198" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="B199" t="s">
+        <v>353</v>
+      </c>
+      <c r="C199" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="B200" t="s">
+        <v>355</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="B201" t="s">
+        <v>357</v>
+      </c>
+      <c r="C201" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="B202" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="B203" t="s">
+        <v>360</v>
+      </c>
+      <c r="C203" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="B204" t="s">
+        <v>362</v>
+      </c>
+      <c r="C204" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206">
+        <v>1286</v>
+      </c>
+      <c r="B206" t="s">
+        <v>364</v>
+      </c>
+      <c r="C206" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="B207" t="s">
+        <v>365</v>
+      </c>
+      <c r="C207" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="B208" t="s">
+        <v>367</v>
+      </c>
+      <c r="C208" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="B209" t="s">
+        <v>369</v>
+      </c>
+      <c r="C209" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="B210" t="s">
+        <v>371</v>
+      </c>
+      <c r="C210" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="B211" t="s">
+        <v>374</v>
+      </c>
+      <c r="C211" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="B212" t="s">
+        <v>376</v>
+      </c>
+      <c r="C212" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="B213" t="s">
+        <v>378</v>
+      </c>
+      <c r="C213" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="B214" t="s">
+        <v>380</v>
+      </c>
+      <c r="C214" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="B215" t="s">
+        <v>382</v>
+      </c>
+      <c r="C215" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="B216" t="s">
+        <v>384</v>
+      </c>
+      <c r="C216" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="B217" t="s">
+        <v>386</v>
+      </c>
+      <c r="C217" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219">
+        <v>1287</v>
+      </c>
+      <c r="B219" t="s">
+        <v>388</v>
+      </c>
+      <c r="C219" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="B220" t="s">
+        <v>390</v>
+      </c>
+      <c r="C220" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="B221" t="s">
+        <v>392</v>
+      </c>
+      <c r="C221" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="B222" t="s">
+        <v>394</v>
+      </c>
+      <c r="C222" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="B223" t="s">
+        <v>396</v>
+      </c>
+      <c r="C223" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="B224" t="s">
+        <v>398</v>
+      </c>
+      <c r="C224" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="B225" t="s">
+        <v>400</v>
+      </c>
+      <c r="C225" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="B226" t="s">
+        <v>402</v>
+      </c>
+      <c r="C226" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="B227" t="s">
+        <v>404</v>
+      </c>
+      <c r="C227" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="B228" t="s">
+        <v>406</v>
+      </c>
+      <c r="C228" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="B229" t="s">
+        <v>408</v>
+      </c>
+      <c r="C229" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="B230" t="s">
+        <v>410</v>
+      </c>
+      <c r="C230" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="B231" t="s">
+        <v>412</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="B232" t="s">
+        <v>414</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="B233" t="s">
+        <v>416</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="B234" t="s">
+        <v>418</v>
+      </c>
+      <c r="C234" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="B235" t="s">
+        <v>420</v>
+      </c>
+      <c r="C235" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237">
+        <v>1288</v>
+      </c>
+      <c r="B237" t="s">
+        <v>422</v>
+      </c>
+      <c r="C237" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="B238" t="s">
+        <v>425</v>
+      </c>
+      <c r="C238" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="B239" t="s">
+        <v>426</v>
+      </c>
+      <c r="C239" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="B240" t="s">
+        <v>428</v>
+      </c>
+      <c r="C240" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="B241" t="s">
+        <v>430</v>
+      </c>
+      <c r="C241" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="B242" t="s">
+        <v>432</v>
+      </c>
+      <c r="C242" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="B243" t="s">
+        <v>434</v>
+      </c>
+      <c r="C243" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="B244" t="s">
+        <v>436</v>
+      </c>
+      <c r="C244" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="B245" t="s">
+        <v>438</v>
+      </c>
+      <c r="C245" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="B246" t="s">
+        <v>440</v>
+      </c>
+      <c r="C246" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="B247" t="s">
+        <v>442</v>
+      </c>
+      <c r="C247" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="B248" t="s">
+        <v>444</v>
+      </c>
+      <c r="C248" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250">
+        <v>1289</v>
+      </c>
+      <c r="B250" t="s">
+        <v>446</v>
+      </c>
+      <c r="C250" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="B251" t="s">
+        <v>448</v>
+      </c>
+      <c r="C251" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="B252" t="s">
+        <v>453</v>
+      </c>
+      <c r="C252" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="B253" t="s">
+        <v>449</v>
+      </c>
+      <c r="C253" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="B254" t="s">
+        <v>450</v>
+      </c>
+      <c r="C254" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="B255" t="s">
+        <v>451</v>
+      </c>
+      <c r="C255" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="B256" t="s">
+        <v>466</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="B257" t="s">
+        <v>456</v>
+      </c>
+      <c r="C257" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="B258" t="s">
+        <v>458</v>
+      </c>
+      <c r="C258" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="B259" t="s">
+        <v>462</v>
+      </c>
+      <c r="C259" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="B260" t="s">
+        <v>464</v>
+      </c>
+      <c r="C260" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262">
+        <v>1290</v>
+      </c>
+      <c r="B262" t="s">
+        <v>468</v>
+      </c>
+      <c r="C262" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="B263" t="s">
+        <v>471</v>
+      </c>
+      <c r="C263" s="6" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="B264" t="s">
+        <v>472</v>
+      </c>
+      <c r="C264" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="B265" t="s">
+        <v>474</v>
+      </c>
+      <c r="C265" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="B266" t="s">
+        <v>476</v>
+      </c>
+      <c r="C266" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="B267" t="s">
+        <v>478</v>
+      </c>
+      <c r="C267" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="B268" t="s">
+        <v>480</v>
+      </c>
+      <c r="C268" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="B269" t="s">
+        <v>482</v>
+      </c>
+      <c r="C269" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="B270" t="s">
+        <v>484</v>
+      </c>
+      <c r="C270" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="B271" t="s">
+        <v>486</v>
+      </c>
+      <c r="C271" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="B272" t="s">
+        <v>488</v>
+      </c>
+      <c r="C272" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="B273" t="s">
+        <v>490</v>
+      </c>
+      <c r="C273" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275">
+        <v>1291</v>
+      </c>
+      <c r="B275" t="s">
+        <v>495</v>
+      </c>
+      <c r="C275" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="B276" t="s">
+        <v>492</v>
+      </c>
+      <c r="C276" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="B277" t="s">
+        <v>496</v>
+      </c>
+      <c r="C277" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="B278" t="s">
+        <v>498</v>
+      </c>
+      <c r="C278" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="B279" t="s">
+        <v>500</v>
+      </c>
+      <c r="C279" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="B280" t="s">
+        <v>517</v>
+      </c>
+      <c r="C280" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="B281" t="s">
+        <v>502</v>
+      </c>
+      <c r="C281" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="B282" t="s">
+        <v>504</v>
+      </c>
+      <c r="C282" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="B283" t="s">
+        <v>506</v>
+      </c>
+      <c r="C283" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" ht="45" customHeight="1">
+      <c r="B284" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="C284" s="14" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" ht="45" customHeight="1">
+      <c r="B285" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="C285" s="15"/>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="B286" t="s">
+        <v>511</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="B287" t="s">
+        <v>513</v>
+      </c>
+      <c r="C287" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="B288" t="s">
+        <v>515</v>
+      </c>
+      <c r="C288" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="B289" t="s">
+        <v>519</v>
+      </c>
+      <c r="C289" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="B290" t="s">
+        <v>521</v>
+      </c>
+      <c r="C290" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292">
+        <v>1292</v>
+      </c>
+      <c r="B292" t="s">
+        <v>528</v>
+      </c>
+      <c r="C292" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="B293" t="s">
+        <v>530</v>
+      </c>
+      <c r="C293" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="B294" t="s">
+        <v>532</v>
+      </c>
+      <c r="C294" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="B295" t="s">
+        <v>534</v>
+      </c>
+      <c r="C295" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="B296" t="s">
+        <v>536</v>
+      </c>
+      <c r="C296" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="B297" t="s">
+        <v>538</v>
+      </c>
+      <c r="C297" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="B298" t="s">
+        <v>540</v>
+      </c>
+      <c r="C298" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="B299" t="s">
+        <v>559</v>
+      </c>
+      <c r="C299" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="B300" t="s">
+        <v>542</v>
+      </c>
+      <c r="C300" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="B301" t="s">
+        <v>544</v>
+      </c>
+      <c r="C301" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="B302" t="s">
+        <v>546</v>
+      </c>
+      <c r="C302" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="B303" t="s">
+        <v>548</v>
+      </c>
+      <c r="C303" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="B304" t="s">
+        <v>550</v>
+      </c>
+      <c r="C304" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="B305" t="s">
+        <v>552</v>
+      </c>
+      <c r="C305" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="B306" t="s">
+        <v>554</v>
+      </c>
+      <c r="C306" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="B307" t="s">
+        <v>556</v>
+      </c>
+      <c r="C307" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="B308" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310">
+        <v>1293</v>
+      </c>
+      <c r="B310" t="s">
+        <v>590</v>
+      </c>
+      <c r="C310" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="B311" t="s">
+        <v>592</v>
+      </c>
+      <c r="C311" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="B312" t="s">
+        <v>594</v>
+      </c>
+      <c r="C312" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="B313" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="B314" t="s">
+        <v>597</v>
+      </c>
+      <c r="C314" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="B315" t="s">
+        <v>599</v>
+      </c>
+      <c r="C315" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="B316" t="s">
+        <v>601</v>
+      </c>
+      <c r="C316" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="B317" t="s">
+        <v>603</v>
+      </c>
+      <c r="C317" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="C318" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="B319" t="s">
+        <v>604</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="B320" t="s">
+        <v>606</v>
+      </c>
+      <c r="C320" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="B321" t="s">
+        <v>608</v>
+      </c>
+      <c r="C321" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="B322" t="s">
+        <v>610</v>
+      </c>
+      <c r="C322" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="C323" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="B324" t="s">
+        <v>615</v>
+      </c>
+      <c r="C324" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="B325" t="s">
+        <v>617</v>
+      </c>
+      <c r="C325" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="B326" t="s">
+        <v>619</v>
+      </c>
+      <c r="C326" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="B327" t="s">
+        <v>621</v>
+      </c>
+      <c r="C327" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="B328" t="s">
+        <v>623</v>
+      </c>
+      <c r="C328" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330">
+        <v>1294</v>
+      </c>
+      <c r="B330" t="s">
+        <v>684</v>
+      </c>
+      <c r="C330" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="B331" t="s">
+        <v>683</v>
+      </c>
+      <c r="C331" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="C332" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="B333" t="s">
+        <v>688</v>
+      </c>
+      <c r="C333" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="B334" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="B335" t="s">
+        <v>691</v>
+      </c>
+      <c r="C335" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="B336" t="s">
+        <v>693</v>
+      </c>
+      <c r="C336" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="C337" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="B338" t="s">
+        <v>696</v>
+      </c>
+      <c r="C338" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="B339" t="s">
+        <v>698</v>
+      </c>
+      <c r="C339" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="C340" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="B341" t="s">
+        <v>701</v>
+      </c>
+      <c r="C341" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="B342" t="s">
+        <v>703</v>
+      </c>
+      <c r="C342" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="B343" t="s">
+        <v>705</v>
+      </c>
+      <c r="C343" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="B344" t="s">
+        <v>707</v>
+      </c>
+      <c r="C344" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="B345" t="s">
+        <v>711</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="B346" t="s">
+        <v>709</v>
+      </c>
+      <c r="C346" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348">
+        <v>1295</v>
+      </c>
+      <c r="B348" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="B349" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="B350" t="s">
+        <v>747</v>
+      </c>
+      <c r="C350" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="B351" t="s">
+        <v>746</v>
+      </c>
+      <c r="C351" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="B352" t="s">
+        <v>749</v>
+      </c>
+      <c r="C352" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="353" spans="2:3">
+      <c r="B353" t="s">
+        <v>751</v>
+      </c>
+      <c r="C353" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="354" spans="2:3">
+      <c r="B354" t="s">
+        <v>753</v>
+      </c>
+      <c r="C354" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="355" spans="2:3">
+      <c r="B355" t="s">
+        <v>755</v>
+      </c>
+      <c r="C355" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="356" spans="2:3">
+      <c r="B356" t="s">
+        <v>757</v>
+      </c>
+      <c r="C356" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="357" spans="2:3">
+      <c r="B357" t="s">
+        <v>759</v>
+      </c>
+      <c r="C357" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="358" spans="2:3">
+      <c r="B358" t="s">
+        <v>761</v>
+      </c>
+      <c r="C358" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="359" spans="2:3">
+      <c r="B359" t="s">
+        <v>763</v>
+      </c>
+      <c r="C359" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="360" spans="2:3">
+      <c r="B360" t="s">
+        <v>765</v>
+      </c>
+      <c r="C360" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="361" spans="2:3">
+      <c r="B361" t="s">
+        <v>767</v>
+      </c>
+      <c r="C361" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="362" spans="2:3">
+      <c r="B362" t="s">
+        <v>769</v>
+      </c>
+      <c r="C362" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="363" spans="2:3">
+      <c r="B363" t="s">
+        <v>771</v>
+      </c>
+      <c r="C363" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="364" spans="2:3">
+      <c r="B364" t="s">
+        <v>773</v>
+      </c>
+      <c r="C364" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="365" spans="2:3">
+      <c r="B365" t="s">
+        <v>775</v>
+      </c>
+      <c r="C365" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="366" spans="2:3">
+      <c r="B366" t="s">
+        <v>777</v>
+      </c>
+      <c r="C366" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="367" spans="2:3">
+      <c r="B367" t="s">
+        <v>779</v>
+      </c>
+      <c r="C367" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="368" spans="2:3">
+      <c r="B368" t="s">
+        <v>781</v>
+      </c>
+      <c r="C368" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="B369" t="s">
+        <v>783</v>
+      </c>
+      <c r="C369" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="B370" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372">
+        <v>1296</v>
+      </c>
+      <c r="B372" t="s">
+        <v>786</v>
+      </c>
+      <c r="C372" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="B373" t="s">
+        <v>788</v>
+      </c>
+      <c r="C373" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="B374" t="s">
+        <v>790</v>
+      </c>
+      <c r="C374" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="B375" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="B376" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="B377" t="s">
+        <v>792</v>
+      </c>
+      <c r="C377" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="B378" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="B379" t="s">
+        <v>797</v>
+      </c>
+      <c r="C379" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
+      <c r="B380" t="s">
+        <v>799</v>
+      </c>
+      <c r="C380" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="B381" t="s">
+        <v>801</v>
+      </c>
+      <c r="C381" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="B382" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="B383" t="s">
+        <v>804</v>
+      </c>
+      <c r="C383" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
+      <c r="B384" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
+      <c r="A386">
+        <v>1297</v>
+      </c>
+      <c r="B386" t="s">
+        <v>809</v>
+      </c>
+      <c r="C386" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
+      <c r="B387" t="s">
+        <v>811</v>
+      </c>
+      <c r="C387" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
+      <c r="B388" t="s">
+        <v>813</v>
+      </c>
+      <c r="C388" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
+      <c r="B389" t="s">
+        <v>815</v>
+      </c>
+      <c r="C389" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
+      <c r="B390" t="s">
+        <v>817</v>
+      </c>
+      <c r="C390" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
+      <c r="B391" t="s">
+        <v>819</v>
+      </c>
+      <c r="C391" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="B392" t="s">
+        <v>821</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="B393" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="B394" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="B395" t="s">
+        <v>824</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
+      <c r="B396" t="s">
+        <v>827</v>
+      </c>
+      <c r="C396" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="B397" t="s">
+        <v>829</v>
+      </c>
+      <c r="C397" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
+      <c r="B398" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="B399" t="s">
+        <v>832</v>
+      </c>
+      <c r="C399" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="B400" t="s">
+        <v>834</v>
+      </c>
+      <c r="C400" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3">
+      <c r="B401" t="s">
+        <v>836</v>
+      </c>
+      <c r="C401" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3">
+      <c r="B402" t="s">
+        <v>838</v>
+      </c>
+      <c r="C402" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3">
+      <c r="B403" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3">
+      <c r="B404" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3">
+      <c r="B405" t="s">
+        <v>842</v>
+      </c>
+      <c r="C405" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3">
+      <c r="B406" t="s">
+        <v>844</v>
+      </c>
+      <c r="C406" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3">
+      <c r="A408">
+        <v>1298</v>
+      </c>
+      <c r="B408" t="s">
+        <v>846</v>
+      </c>
+      <c r="C408" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3">
+      <c r="C409" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3">
+      <c r="B410" t="s">
+        <v>849</v>
+      </c>
+      <c r="C410" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3">
+      <c r="B411" t="s">
+        <v>851</v>
+      </c>
+      <c r="C411" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3">
+      <c r="B412" t="s">
+        <v>853</v>
+      </c>
+      <c r="C412" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3">
+      <c r="C413" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3">
+      <c r="B414" t="s">
+        <v>856</v>
+      </c>
+      <c r="C414" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3">
+      <c r="B415" t="s">
+        <v>858</v>
+      </c>
+      <c r="C415" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3">
+      <c r="B416" t="s">
+        <v>860</v>
+      </c>
+      <c r="C416" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3">
+      <c r="B417" s="16" t="s">
+        <v>862</v>
+      </c>
+      <c r="C417" s="16"/>
+    </row>
+    <row r="418" spans="1:3">
+      <c r="B418" t="s">
+        <v>863</v>
+      </c>
+      <c r="C418" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3">
+      <c r="B419" t="s">
+        <v>865</v>
+      </c>
+      <c r="C419" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3">
+      <c r="B420" t="s">
+        <v>867</v>
+      </c>
+      <c r="C420" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3">
+      <c r="B421" t="s">
+        <v>869</v>
+      </c>
+      <c r="C421" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3">
+      <c r="B422" t="s">
+        <v>871</v>
+      </c>
+      <c r="C422" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3">
+      <c r="A424">
+        <v>1299</v>
+      </c>
+      <c r="B424" t="s">
+        <v>937</v>
+      </c>
+      <c r="C424" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3">
+      <c r="B425" t="s">
+        <v>942</v>
+      </c>
+      <c r="C425" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3">
+      <c r="B426" t="s">
+        <v>945</v>
+      </c>
+      <c r="C426" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3">
+      <c r="B427" t="s">
+        <v>938</v>
+      </c>
+      <c r="C427" s="6" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3">
+      <c r="B428" t="s">
+        <v>941</v>
+      </c>
+      <c r="C428" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3">
+      <c r="B429" t="s">
+        <v>947</v>
+      </c>
+      <c r="C429" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3">
+      <c r="B430" t="s">
+        <v>949</v>
+      </c>
+      <c r="C430" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3">
+      <c r="B431" t="s">
+        <v>951</v>
+      </c>
+      <c r="C431" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3">
+      <c r="B432" s="9" t="s">
+        <v>953</v>
+      </c>
+      <c r="C432" s="1" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3">
+      <c r="B433" t="s">
+        <v>955</v>
+      </c>
+      <c r="C433" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3">
+      <c r="B434" t="s">
+        <v>957</v>
+      </c>
+      <c r="C434" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3">
+      <c r="B435" t="s">
+        <v>959</v>
+      </c>
+      <c r="C435" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3">
+      <c r="B436" t="s">
+        <v>961</v>
+      </c>
+      <c r="C436" s="1" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3">
+      <c r="B437" t="s">
+        <v>964</v>
+      </c>
+      <c r="C437" s="6" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3">
+      <c r="B438" t="s">
+        <v>965</v>
+      </c>
+      <c r="C438" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3">
+      <c r="B439" t="s">
+        <v>967</v>
+      </c>
+      <c r="C439" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3">
+      <c r="B440" t="s">
+        <v>969</v>
+      </c>
+      <c r="C440" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3">
+      <c r="B441" t="s">
+        <v>971</v>
+      </c>
+      <c r="C441" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3">
+      <c r="C442" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3">
+      <c r="A444">
+        <v>1300</v>
+      </c>
+      <c r="B444" t="s">
+        <v>974</v>
+      </c>
+      <c r="C444" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3">
+      <c r="B445" t="s">
+        <v>976</v>
+      </c>
+      <c r="C445" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3">
+      <c r="B446" t="s">
+        <v>978</v>
+      </c>
+      <c r="C446" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3">
+      <c r="B447" t="s">
+        <v>980</v>
+      </c>
+      <c r="C447" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3">
+      <c r="B448" t="s">
+        <v>982</v>
+      </c>
+      <c r="C448" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3">
+      <c r="B449" t="s">
+        <v>984</v>
+      </c>
+      <c r="C449" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3">
+      <c r="B450" t="s">
+        <v>986</v>
+      </c>
+      <c r="C450" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3">
+      <c r="B451" t="s">
+        <v>988</v>
+      </c>
+      <c r="C451" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3">
+      <c r="B452" t="s">
+        <v>990</v>
+      </c>
+      <c r="C452" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3">
+      <c r="B453" t="s">
+        <v>992</v>
+      </c>
+      <c r="C453" s="9" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3">
+      <c r="B454" t="s">
+        <v>994</v>
+      </c>
+      <c r="C454" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3">
+      <c r="B455" t="s">
+        <v>996</v>
+      </c>
+      <c r="C455" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3">
+      <c r="A457">
+        <v>1301</v>
+      </c>
+      <c r="B457" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C457" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3">
+      <c r="B458" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C458" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3">
+      <c r="B459" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C459" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3">
+      <c r="B460" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C460" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3">
+      <c r="B461" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C461" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3">
+      <c r="B462" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C462" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3">
+      <c r="B463" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C463" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3">
+      <c r="B464" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C464" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3">
+      <c r="B465" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C465" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3">
+      <c r="B466" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C466" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3">
+      <c r="C467" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3">
+      <c r="B468" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C468" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3">
+      <c r="B469" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C469" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3">
+      <c r="C470" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3">
+      <c r="B471" s="9" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C471" s="9" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3">
+      <c r="B472" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C472" s="1" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3">
+      <c r="B473" s="10" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C473" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3">
+      <c r="B474" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C474" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3">
+      <c r="B475" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C475" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3">
+      <c r="B476" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3">
+      <c r="B477" s="9" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C477" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3">
+      <c r="A479">
+        <v>1302</v>
+      </c>
+      <c r="B479" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C479" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3">
+      <c r="C480" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3">
+      <c r="B481" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C481" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3">
+      <c r="B482" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C482" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3">
+      <c r="B483" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C483" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3">
+      <c r="B484" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C484" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3">
+      <c r="B485" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C485" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3">
+      <c r="B486" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C486" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3">
+      <c r="B487" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C487" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3">
+      <c r="B488" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C488" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3">
+      <c r="B489" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C489" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3">
+      <c r="B490" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C490" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3">
+      <c r="B491" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C491" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3">
+      <c r="C492" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3">
+      <c r="B493" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C493" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3">
+      <c r="B494" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C494" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3">
+      <c r="A496">
+        <v>1303</v>
+      </c>
+      <c r="B496" s="11">
+        <v>1303</v>
+      </c>
+      <c r="C496" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3">
+      <c r="B497" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3">
+      <c r="B498" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3">
+      <c r="B499" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3">
+      <c r="B500" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C500" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3">
+      <c r="B501" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C501" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3">
+      <c r="B502" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C502" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3">
+      <c r="B503" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C503" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3">
+      <c r="B504" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C504" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3">
+      <c r="C505" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3">
+      <c r="B506" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C506" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3">
+      <c r="B507" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C507" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3">
+      <c r="B508" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3">
+      <c r="A510">
+        <v>1304</v>
+      </c>
+      <c r="B510" s="16" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C510" s="16"/>
+    </row>
+    <row r="511" spans="1:3">
+      <c r="B511" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C511" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3">
+      <c r="B512" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C512" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3">
+      <c r="B513" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C513" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3">
+      <c r="B514" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3">
+      <c r="B515" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C515" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3">
+      <c r="B516" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C516" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3">
+      <c r="B517" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C517" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3">
+      <c r="B518" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C518" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3">
+      <c r="B519" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3">
+      <c r="B520" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C520" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3">
+      <c r="B521" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C521" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3">
+      <c r="B522" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C522" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3">
+      <c r="A524">
+        <v>1305</v>
+      </c>
+      <c r="B524" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C524" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3">
+      <c r="B525" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C525" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3">
+      <c r="B526" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C526" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3">
+      <c r="B527" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3">
+      <c r="B528" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="529" spans="2:3">
+      <c r="B529" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C529" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="530" spans="2:3">
+      <c r="B530" s="8" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C530" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="531" spans="2:3">
+      <c r="B531" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C531" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="532" spans="2:3">
+      <c r="B532" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="533" spans="2:3">
+      <c r="B533" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C533" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="534" spans="2:3">
+      <c r="B534" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C534" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="535" spans="2:3">
+      <c r="B535" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C535" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="536" spans="2:3">
+      <c r="B536" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C536" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="537" spans="2:3">
+      <c r="B537" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C537" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="538" spans="2:3">
+      <c r="B538" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C538" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="539" spans="2:3">
+      <c r="B539" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="540" spans="2:3">
+      <c r="B540" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C540" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="541" spans="2:3">
+      <c r="B541" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C541" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="542" spans="2:3">
+      <c r="B542" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C542" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C179:C180"/>
+    <mergeCell ref="C284:C285"/>
+    <mergeCell ref="B417:C417"/>
+    <mergeCell ref="B510:C510"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:C122"/>
   <sheetViews>
@@ -11030,7 +11520,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:I7"/>
   <sheetViews>

--- a/english_note.xlsx
+++ b/english_note.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="1176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="1215">
   <si>
     <t>respond</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6008,6 +6008,162 @@
   </si>
   <si>
     <t>hoot: sth that is fun, enjoyable, entertaining. This is a old-fasion expression</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I thought they'd never leave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the time that you spend with other people</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a little reserved</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reserved: to be quiet, not to talk a lot, but also not to share your opinions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soft-spoken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>don't speak very loudly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on the shy side</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shy: same as timid; a little bit shy, maybe not all that much</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>talk someone's ear off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>talk a lot, talk too much</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get a word in edgewise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>you are almost unable to talk because the other person is talking so much</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anecdote</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a funny, or humorous, story about sth that really happened</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>joke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sth that is imaginary, that never took place</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long-winded</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;n.&gt;a person who talks too much, who talks too long, so long that you begin to get a little bored by the person</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make conversation with someone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>talk to someone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>She is so closemouthed and guarded that it was like pulling teeth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">closemouthed&lt;adj.&gt;: someone isn't willing to speak, or doesn't like talking. Guarded:don't want to tell someone sth. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pulling teeth&lt;adj.&gt;: sth that is very difficult to do, sth that is very challenging, often because the other people doesn't cooperate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reticent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unwilling to share your opinion, to be unwilling to talk about a certain topic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loudmouth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a person who talks very loudly and often too much, someone who perhaps tries to impress other people by bragging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obnoxious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;adj.&gt; describe a person who is not very likeable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>harsh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to be a little mean, a little cruel, too unkind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blather</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;v.&gt;use a lot of words but not really to say anything</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gossipy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>someone who enjoys talking about other people and mentioning things that may or may not be true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;v.&gt;gossip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rumors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>information that people tell other people even though they aren't sure that the information is correct</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6015,7 +6171,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6077,6 +6233,12 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -6098,7 +6260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6132,6 +6294,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6429,13 +6592,13 @@
   <dimension ref="A2:C530"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="5.375" customWidth="1"/>
-    <col min="2" max="2" width="45.125" customWidth="1"/>
+    <col min="2" max="2" width="46.125" customWidth="1"/>
     <col min="3" max="3" width="118.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6451,8 +6614,169 @@
       <c r="A3">
         <v>1169</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="B3" s="17" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C3" s="17"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="8" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="C15" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="B19" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="B20" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="B21" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="C22" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="B23" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>1170</v>
+      </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" s="1"/>
